--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2973"/>
+  <dimension ref="A1:H2949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79017,10 +79017,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2475">
@@ -79051,10 +79049,8 @@
       </c>
       <c r="F2475" t="inlineStr"/>
       <c r="G2475" t="inlineStr"/>
-      <c r="H2475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2476">
@@ -79089,10 +79085,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2477">
@@ -79115,10 +79109,8 @@
       <c r="E2477" t="inlineStr"/>
       <c r="F2477" t="inlineStr"/>
       <c r="G2477" t="inlineStr"/>
-      <c r="H2477" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2477" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2478">
@@ -79157,10 +79149,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2478" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2478" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2479">
@@ -79195,10 +79185,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2479" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2479" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2480">
@@ -79237,10 +79225,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2481">
@@ -79279,10 +79265,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2482">
@@ -79321,10 +79305,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2483">
@@ -79359,10 +79341,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2484">
@@ -79401,10 +79381,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2485">
@@ -79443,10 +79421,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2485" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2485" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2486">
@@ -79481,10 +79457,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2487">
@@ -79523,10 +79497,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2488">
@@ -79565,10 +79537,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2489">
@@ -79607,10 +79577,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2489" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2489" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2490">
@@ -79649,10 +79617,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2490" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2490" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2491">
@@ -79691,10 +79657,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2491" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2491" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2492">
@@ -79733,10 +79697,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2492" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2492" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2493">
@@ -79771,10 +79733,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2494">
@@ -79813,10 +79773,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2495">
@@ -79855,10 +79813,8 @@
           <t>£ 1.0B</t>
         </is>
       </c>
-      <c r="H2495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2495" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2496">
@@ -79897,10 +79853,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2496" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2496" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2497">
@@ -79939,10 +79893,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2497" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2497" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2498">
@@ -79981,10 +79933,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2499">
@@ -80023,10 +79973,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2500">
@@ -80065,10 +80013,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2500" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2500" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2501">
@@ -80107,10 +80053,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2501" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2501" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2502">
@@ -80145,10 +80089,8 @@
         </is>
       </c>
       <c r="G2502" t="inlineStr"/>
-      <c r="H2502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2503">
@@ -80187,10 +80129,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2504">
@@ -80229,10 +80169,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2505">
@@ -80267,10 +80205,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2506">
@@ -80309,10 +80245,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2507">
@@ -80347,10 +80281,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2508">
@@ -80389,10 +80321,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2509">
@@ -80431,10 +80361,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2509" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2509" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2510">
@@ -80465,10 +80393,8 @@
       </c>
       <c r="F2510" t="inlineStr"/>
       <c r="G2510" t="inlineStr"/>
-      <c r="H2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2511">
@@ -80499,10 +80425,8 @@
       </c>
       <c r="F2511" t="inlineStr"/>
       <c r="G2511" t="inlineStr"/>
-      <c r="H2511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2512">
@@ -80533,10 +80457,8 @@
       </c>
       <c r="F2512" t="inlineStr"/>
       <c r="G2512" t="inlineStr"/>
-      <c r="H2512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2513">
@@ -80575,10 +80497,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2514">
@@ -80613,10 +80533,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2515">
@@ -80651,10 +80569,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2516">
@@ -80677,10 +80593,8 @@
       <c r="E2516" t="inlineStr"/>
       <c r="F2516" t="inlineStr"/>
       <c r="G2516" t="inlineStr"/>
-      <c r="H2516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2517">
@@ -80711,10 +80625,8 @@
       </c>
       <c r="F2517" t="inlineStr"/>
       <c r="G2517" t="inlineStr"/>
-      <c r="H2517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2518">
@@ -80749,10 +80661,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2519">
@@ -80791,10 +80701,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2520">
@@ -80833,10 +80741,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2520" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2521">
@@ -80871,10 +80777,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2522">
@@ -80909,10 +80813,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2523">
@@ -80951,10 +80853,8 @@
           <t>-425.0K</t>
         </is>
       </c>
-      <c r="H2523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2524">
@@ -80993,10 +80893,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2525">
@@ -81031,10 +80929,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2526">
@@ -81073,10 +80969,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2526" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2526" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2527">
@@ -81115,10 +81009,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2527" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2528">
@@ -81153,10 +81045,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2529">
@@ -81191,10 +81081,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2530">
@@ -81233,10 +81121,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2530" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2530" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2531">
@@ -81275,10 +81161,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2532">
@@ -81317,10 +81201,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2533">
@@ -81359,10 +81241,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2534">
@@ -81401,10 +81281,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2535">
@@ -81439,10 +81317,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2536">
@@ -81477,10 +81353,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2537">
@@ -81515,10 +81389,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2538">
@@ -81553,10 +81425,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2539">
@@ -81579,10 +81449,8 @@
       <c r="E2539" t="inlineStr"/>
       <c r="F2539" t="inlineStr"/>
       <c r="G2539" t="inlineStr"/>
-      <c r="H2539" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2539" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2540">
@@ -81617,10 +81485,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2541">
@@ -81655,10 +81521,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2542">
@@ -81697,10 +81561,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="H2542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2543">
@@ -81735,10 +81597,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2543" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2544">
@@ -81773,10 +81633,8 @@
         </is>
       </c>
       <c r="G2544" t="inlineStr"/>
-      <c r="H2544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2545">
@@ -81807,10 +81665,8 @@
       </c>
       <c r="F2545" t="inlineStr"/>
       <c r="G2545" t="inlineStr"/>
-      <c r="H2545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2546">
@@ -81841,10 +81697,8 @@
       </c>
       <c r="F2546" t="inlineStr"/>
       <c r="G2546" t="inlineStr"/>
-      <c r="H2546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2547">
@@ -81875,10 +81729,8 @@
       </c>
       <c r="F2547" t="inlineStr"/>
       <c r="G2547" t="inlineStr"/>
-      <c r="H2547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2548">
@@ -81909,10 +81761,8 @@
       </c>
       <c r="F2548" t="inlineStr"/>
       <c r="G2548" t="inlineStr"/>
-      <c r="H2548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2549">
@@ -81943,10 +81793,8 @@
       </c>
       <c r="F2549" t="inlineStr"/>
       <c r="G2549" t="inlineStr"/>
-      <c r="H2549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2550">
@@ -81977,10 +81825,8 @@
       </c>
       <c r="F2550" t="inlineStr"/>
       <c r="G2550" t="inlineStr"/>
-      <c r="H2550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2551">
@@ -82011,10 +81857,8 @@
       </c>
       <c r="F2551" t="inlineStr"/>
       <c r="G2551" t="inlineStr"/>
-      <c r="H2551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2552">
@@ -82053,10 +81897,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H2552" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2552" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2553">
@@ -82095,10 +81937,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H2553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2554">
@@ -82137,10 +81977,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2555">
@@ -82175,10 +82013,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2556">
@@ -82213,10 +82049,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H2556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2557">
@@ -82255,10 +82089,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2557" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2558">
@@ -82297,10 +82129,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2558" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2559">
@@ -82335,10 +82165,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H2559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2560">
@@ -82373,10 +82201,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2561">
@@ -82415,10 +82241,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2561" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2561" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2562">
@@ -82457,10 +82281,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2563">
@@ -82495,10 +82317,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2564">
@@ -82537,10 +82357,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2565">
@@ -82575,10 +82393,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H2565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2566">
@@ -82613,10 +82429,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H2566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2567">
@@ -82647,10 +82461,8 @@
       </c>
       <c r="F2567" t="inlineStr"/>
       <c r="G2567" t="inlineStr"/>
-      <c r="H2567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2568">
@@ -82681,10 +82493,8 @@
       </c>
       <c r="F2568" t="inlineStr"/>
       <c r="G2568" t="inlineStr"/>
-      <c r="H2568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2569">
@@ -82715,10 +82525,8 @@
       </c>
       <c r="F2569" t="inlineStr"/>
       <c r="G2569" t="inlineStr"/>
-      <c r="H2569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2570">
@@ -82745,10 +82553,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2571">
@@ -82801,10 +82607,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H2572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2573">
@@ -82839,10 +82643,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2574">
@@ -82877,10 +82679,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2575">
@@ -82915,10 +82715,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2575" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2575" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2576">
@@ -82953,10 +82751,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2577">
@@ -82987,10 +82783,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2578">
@@ -83025,10 +82819,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2579">
@@ -83059,10 +82851,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2580">
@@ -83093,10 +82883,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2581">
@@ -83131,10 +82919,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2582">
@@ -83169,10 +82955,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2583">
@@ -83207,10 +82991,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2584">
@@ -83245,10 +83027,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83283,10 +83063,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2586">
@@ -83321,10 +83099,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2587">
@@ -83355,10 +83131,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2588">
@@ -83389,10 +83163,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83423,10 +83195,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83461,10 +83231,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83491,10 +83259,8 @@
       </c>
       <c r="F2591" t="inlineStr"/>
       <c r="G2591" t="inlineStr"/>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83529,10 +83295,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2593">
@@ -83563,10 +83327,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2594">
@@ -83601,10 +83363,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2595">
@@ -83627,10 +83387,8 @@
       <c r="E2595" t="inlineStr"/>
       <c r="F2595" t="inlineStr"/>
       <c r="G2595" t="inlineStr"/>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2596">
@@ -83657,10 +83415,8 @@
       </c>
       <c r="F2596" t="inlineStr"/>
       <c r="G2596" t="inlineStr"/>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2597">
@@ -83687,10 +83443,8 @@
       </c>
       <c r="F2597" t="inlineStr"/>
       <c r="G2597" t="inlineStr"/>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2598">
@@ -83717,10 +83471,8 @@
       </c>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2599">
@@ -83747,10 +83499,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83777,10 +83527,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83807,10 +83555,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -83837,10 +83583,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -83867,10 +83611,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -83897,10 +83639,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -83927,10 +83667,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -83957,10 +83695,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -83987,10 +83723,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84021,10 +83755,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84055,10 +83787,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84089,10 +83819,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84123,10 +83851,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84157,10 +83883,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84195,10 +83919,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84225,10 +83947,8 @@
       </c>
       <c r="F2614" t="inlineStr"/>
       <c r="G2614" t="inlineStr"/>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84255,10 +83975,8 @@
       </c>
       <c r="F2615" t="inlineStr"/>
       <c r="G2615" t="inlineStr"/>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84285,10 +84003,8 @@
       </c>
       <c r="F2616" t="inlineStr"/>
       <c r="G2616" t="inlineStr"/>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84319,10 +84035,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84357,10 +84071,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2619">
@@ -84391,10 +84103,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2620">
@@ -84429,10 +84139,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2621">
@@ -84467,10 +84175,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84505,10 +84211,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2623">
@@ -84543,10 +84247,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2624">
@@ -84581,10 +84283,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84615,10 +84315,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2626">
@@ -84653,10 +84351,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2627">
@@ -84691,10 +84387,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2628">
@@ -84729,10 +84423,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2629">
@@ -84763,10 +84455,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2630">
@@ -84797,10 +84487,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2631">
@@ -84835,10 +84523,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2632">
@@ -84861,10 +84547,8 @@
       <c r="E2632" t="inlineStr"/>
       <c r="F2632" t="inlineStr"/>
       <c r="G2632" t="inlineStr"/>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -84899,10 +84583,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -84937,10 +84619,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -84975,10 +84655,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2636">
@@ -85013,10 +84691,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85047,10 +84723,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2638">
@@ -85077,10 +84751,8 @@
       </c>
       <c r="F2638" t="inlineStr"/>
       <c r="G2638" t="inlineStr"/>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85107,10 +84779,8 @@
       </c>
       <c r="F2639" t="inlineStr"/>
       <c r="G2639" t="inlineStr"/>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2640">
@@ -85141,10 +84811,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2641">
@@ -85175,10 +84843,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85209,10 +84875,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85239,10 +84903,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85269,10 +84931,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85299,10 +84959,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85329,10 +84987,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85359,10 +85015,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85389,10 +85043,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85433,10 +85085,8 @@
       </c>
       <c r="F2650" t="inlineStr"/>
       <c r="G2650" t="inlineStr"/>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2651">
@@ -85467,10 +85117,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2652">
@@ -85501,10 +85149,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85535,10 +85181,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
@@ -85561,10 +85205,8 @@
       <c r="E2654" t="inlineStr"/>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2655">
@@ -85595,10 +85237,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2656">
@@ -85633,10 +85273,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2657">
@@ -85663,10 +85301,8 @@
       </c>
       <c r="F2657" t="inlineStr"/>
       <c r="G2657" t="inlineStr"/>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2658">
@@ -85693,10 +85329,8 @@
       </c>
       <c r="F2658" t="inlineStr"/>
       <c r="G2658" t="inlineStr"/>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -85727,10 +85361,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -85765,10 +85397,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2661">
@@ -85799,10 +85429,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2662">
@@ -85837,10 +85465,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2663">
@@ -85871,10 +85497,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2664">
@@ -85905,10 +85529,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2665">
@@ -85939,10 +85561,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2666">
@@ -85973,10 +85593,8 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2667">
@@ -86003,10 +85621,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2668">
@@ -86055,10 +85671,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2670">
@@ -86085,10 +85699,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -86115,10 +85727,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -86149,10 +85759,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2673">
@@ -86187,10 +85795,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2674">
@@ -86225,10 +85831,8 @@
           <t>41.0%</t>
         </is>
       </c>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2675">
@@ -86259,10 +85863,8 @@
           <t>49.3</t>
         </is>
       </c>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2676">
@@ -86293,10 +85895,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -86327,10 +85927,8 @@
           <t>27.0%</t>
         </is>
       </c>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -86357,10 +85955,8 @@
       </c>
       <c r="F2678" t="inlineStr"/>
       <c r="G2678" t="inlineStr"/>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2679">
@@ -86387,10 +85983,8 @@
       </c>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -86417,10 +86011,8 @@
       </c>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2681">
@@ -86447,10 +86039,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2682">
@@ -86485,10 +86075,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2683">
@@ -86523,10 +86111,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2684">
@@ -86561,10 +86147,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -86595,10 +86179,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2686">
@@ -86633,10 +86215,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2687">
@@ -86663,10 +86243,8 @@
       </c>
       <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr"/>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2688">
@@ -86693,10 +86271,8 @@
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2689">
@@ -86723,10 +86299,8 @@
       </c>
       <c r="F2689" t="inlineStr"/>
       <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2690">
@@ -86753,10 +86327,8 @@
       </c>
       <c r="F2690" t="inlineStr"/>
       <c r="G2690" t="inlineStr"/>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -86783,10 +86355,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2692">
@@ -86813,10 +86383,8 @@
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2693">
@@ -86843,10 +86411,8 @@
       </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -86873,10 +86439,8 @@
       </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86907,10 +86471,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2696">
@@ -86941,10 +86503,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -86975,10 +86535,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -87005,10 +86563,8 @@
       </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -87035,10 +86591,8 @@
       </c>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -87065,10 +86619,8 @@
       </c>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -87099,10 +86651,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2702">
@@ -87137,10 +86687,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2703">
@@ -87171,10 +86719,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2704">
@@ -87205,10 +86751,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2705">
@@ -87239,10 +86783,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -87273,10 +86815,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -87307,10 +86847,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -87337,10 +86875,8 @@
       </c>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -87367,10 +86903,8 @@
       </c>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -87393,10 +86927,8 @@
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
       <c r="G2710" t="inlineStr"/>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2711">
@@ -87419,10 +86951,8 @@
       <c r="E2711" t="inlineStr"/>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87445,10 +86975,8 @@
       <c r="E2712" t="inlineStr"/>
       <c r="F2712" t="inlineStr"/>
       <c r="G2712" t="inlineStr"/>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -87475,10 +87003,8 @@
       </c>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87505,10 +87031,8 @@
       </c>
       <c r="F2714" t="inlineStr"/>
       <c r="G2714" t="inlineStr"/>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87539,10 +87063,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -87561,10 +87083,8 @@
       <c r="E2716" t="inlineStr"/>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -87583,10 +87103,8 @@
       <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -87613,10 +87131,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87657,10 +87173,8 @@
       </c>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -87687,10 +87201,8 @@
       </c>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -87717,10 +87229,8 @@
       </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -87747,10 +87257,8 @@
       </c>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -87781,10 +87289,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -87811,10 +87317,8 @@
       </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87837,10 +87341,8 @@
       <c r="E2726" t="inlineStr"/>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -87871,10 +87373,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -87905,10 +87405,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -87939,10 +87437,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2730">
@@ -87969,10 +87465,8 @@
       </c>
       <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2731">
@@ -88003,10 +87497,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -88037,10 +87529,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2733">
@@ -88071,10 +87561,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2734">
@@ -88105,10 +87593,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -88139,10 +87625,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -88173,10 +87657,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -88199,10 +87681,8 @@
       <c r="E2737" t="inlineStr"/>
       <c r="F2737" t="inlineStr"/>
       <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2738">
@@ -88225,10 +87705,8 @@
       <c r="E2738" t="inlineStr"/>
       <c r="F2738" t="inlineStr"/>
       <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -88255,10 +87733,8 @@
       </c>
       <c r="F2739" t="inlineStr"/>
       <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -88285,10 +87761,8 @@
       </c>
       <c r="F2740" t="inlineStr"/>
       <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2741">
@@ -88319,10 +87793,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2742">
@@ -88353,10 +87825,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -88383,10 +87853,8 @@
       </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2744">
@@ -88413,10 +87881,8 @@
       </c>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88447,10 +87913,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -88477,10 +87941,8 @@
       </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88515,10 +87977,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2748">
@@ -88549,10 +88009,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -88579,10 +88037,8 @@
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88613,10 +88069,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2751">
@@ -88647,10 +88101,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -88681,10 +88133,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2753">
@@ -88715,10 +88165,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -88749,10 +88197,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -88775,10 +88221,8 @@
           <t>$-9.4B</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2756">
@@ -88801,10 +88245,8 @@
           <t>$24.3B</t>
         </is>
       </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -88827,10 +88269,8 @@
           <t>$33.7B</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2758">
@@ -88853,10 +88293,8 @@
       </c>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -88905,10 +88343,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -88943,10 +88379,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -88977,10 +88411,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -89011,10 +88443,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -89045,10 +88475,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -89079,10 +88507,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -89109,10 +88535,8 @@
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -89143,10 +88567,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2768">
@@ -89173,10 +88595,8 @@
       </c>
       <c r="F2768" t="inlineStr"/>
       <c r="G2768" t="inlineStr"/>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2769">
@@ -89203,10 +88623,8 @@
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -89233,10 +88651,8 @@
       </c>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -89263,10 +88679,8 @@
       </c>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2772">
@@ -89301,10 +88715,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2773">
@@ -89339,10 +88751,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89377,10 +88787,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2775">
@@ -89415,10 +88823,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2776">
@@ -89453,10 +88859,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2777">
@@ -89491,10 +88895,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2778">
@@ -89525,10 +88927,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2779">
@@ -89559,10 +88959,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89593,10 +88991,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -89631,10 +89027,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -89669,10 +89063,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -89703,10 +89095,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -89737,10 +89127,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -89767,10 +89155,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -89797,10 +89183,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89827,10 +89211,8 @@
       </c>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -89857,10 +89239,8 @@
       </c>
       <c r="F2788" t="inlineStr"/>
       <c r="G2788" t="inlineStr"/>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -89891,10 +89271,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2790">
@@ -89925,10 +89303,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -89959,10 +89335,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -89993,10 +89367,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -90023,10 +89395,8 @@
       </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2794">
@@ -90053,10 +89423,8 @@
       </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -90083,10 +89451,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -90113,10 +89479,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -90143,10 +89507,8 @@
       </c>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -90177,10 +89539,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2799">
@@ -90211,10 +89571,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -90245,10 +89603,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2801">
@@ -90279,10 +89635,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2802">
@@ -90313,10 +89667,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -90347,10 +89699,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90381,10 +89731,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2805">
@@ -90415,10 +89763,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2806">
@@ -90449,10 +89795,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2807">
@@ -90475,10 +89819,8 @@
       <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90509,10 +89851,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90543,10 +89883,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90581,10 +89919,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2811">
@@ -90619,10 +89955,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2812">
@@ -90653,10 +89987,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2813">
@@ -90687,10 +90019,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90721,10 +90051,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -90755,10 +90083,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -90789,10 +90115,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90819,10 +90143,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2818">
@@ -90849,10 +90171,8 @@
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -90879,10 +90199,8 @@
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -90909,10 +90227,8 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90939,10 +90255,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90969,10 +90283,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -90999,10 +90311,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -91029,10 +90339,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -91059,10 +90367,8 @@
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -91093,10 +90399,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -91127,10 +90431,8 @@
           <t>6.8</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -91161,10 +90463,8 @@
           <t>RUB 26.0T</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91195,10 +90495,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -91229,10 +90527,8 @@
           <t>7.0%</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -91263,10 +90559,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -91293,10 +90587,8 @@
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -91323,10 +90615,8 @@
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -91349,10 +90639,8 @@
       <c r="E2834" t="inlineStr"/>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2835">
@@ -91383,10 +90671,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2836">
@@ -91417,10 +90703,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -91451,10 +90735,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -91485,10 +90767,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -91519,10 +90799,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -91549,10 +90827,8 @@
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -91579,10 +90855,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -91613,10 +90887,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2843">
@@ -91643,10 +90915,8 @@
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2844">
@@ -91673,10 +90943,8 @@
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2845">
@@ -91703,10 +90971,8 @@
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2846">
@@ -91733,10 +90999,8 @@
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -91759,10 +91023,8 @@
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -91807,10 +91069,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2850">
@@ -91837,10 +91097,8 @@
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -91867,10 +91125,8 @@
       </c>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -91897,10 +91153,8 @@
       </c>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2853">
@@ -91927,10 +91181,8 @@
       </c>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -91961,10 +91213,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2855">
@@ -91995,10 +91245,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2856">
@@ -92029,10 +91277,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2857">
@@ -92055,10 +91301,8 @@
       <c r="E2857" t="inlineStr"/>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
@@ -92085,10 +91329,8 @@
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2859">
@@ -92119,10 +91361,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2860">
@@ -92157,10 +91397,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2861">
@@ -92183,10 +91421,8 @@
       <c r="E2861" t="inlineStr"/>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2862">
@@ -92213,10 +91449,8 @@
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2863">
@@ -92243,10 +91477,8 @@
       </c>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2864">
@@ -92273,10 +91505,8 @@
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2865">
@@ -92299,10 +91529,8 @@
       <c r="E2865" t="inlineStr"/>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2866">
@@ -92333,10 +91561,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2867">
@@ -92367,10 +91593,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2868">
@@ -92401,10 +91625,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2869">
@@ -92435,10 +91657,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2870">
@@ -92469,10 +91689,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2871">
@@ -92503,10 +91721,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2872">
@@ -92537,10 +91753,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2872" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2873">
@@ -92567,10 +91781,8 @@
       </c>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2874">
@@ -92597,10 +91809,8 @@
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2875">
@@ -92627,10 +91837,8 @@
       </c>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr"/>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2876">
@@ -92657,10 +91865,8 @@
       </c>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2877">
@@ -92687,10 +91893,8 @@
       </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr"/>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2878">
@@ -92717,10 +91921,8 @@
       </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2879">
@@ -92751,10 +91953,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2879" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2880">
@@ -92777,10 +91977,8 @@
       <c r="E2880" t="inlineStr"/>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr"/>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2880" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2881">
@@ -92807,10 +92005,8 @@
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr"/>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2882">
@@ -92841,10 +92037,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2883">
@@ -92875,10 +92069,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2884">
@@ -92905,10 +92097,8 @@
       </c>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr"/>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2885">
@@ -92935,10 +92125,8 @@
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr"/>
-      <c r="H2885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2886">
@@ -92965,10 +92153,8 @@
       </c>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr"/>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2886" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2887">
@@ -92995,10 +92181,8 @@
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr"/>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2888">
@@ -93021,10 +92205,8 @@
       </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2889">
@@ -93047,10 +92229,8 @@
       </c>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr"/>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2890">
@@ -93073,10 +92253,8 @@
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr"/>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2891">
@@ -93099,10 +92277,8 @@
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr"/>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2892">
@@ -93125,10 +92301,8 @@
       </c>
       <c r="F2892" t="inlineStr"/>
       <c r="G2892" t="inlineStr"/>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2893">
@@ -93151,10 +92325,8 @@
       </c>
       <c r="F2893" t="inlineStr"/>
       <c r="G2893" t="inlineStr"/>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2894">
@@ -93177,52 +92349,70 @@
       </c>
       <c r="F2894" t="inlineStr"/>
       <c r="G2894" t="inlineStr"/>
-      <c r="H2894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2895" t="inlineStr"/>
-      <c r="C2895" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2895" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2895" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr"/>
+      <c r="E2895" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
       <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
-      <c r="H2895" t="inlineStr"/>
+      <c r="G2895" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="H2895" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
       <c r="G2896" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2896" t="inlineStr">
@@ -93234,29 +92424,29 @@
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr">
         <is>
-          <t>108.2</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2897" t="inlineStr">
@@ -93268,29 +92458,29 @@
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2898" t="inlineStr">
@@ -93302,97 +92492,97 @@
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
@@ -93404,61 +92594,65 @@
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
       <c r="G2902" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="H2902" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr"/>
+      <c r="G2903" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2903" t="inlineStr">
         <is>
           <t>2</t>
@@ -93468,27 +92662,31 @@
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr"/>
+      <c r="G2904" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2904" t="inlineStr">
         <is>
           <t>2</t>
@@ -93498,221 +92696,233 @@
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr"/>
+      <c r="E2905" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr"/>
+      <c r="G2905" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2905" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
       <c r="E2906" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2906" t="inlineStr"/>
       <c r="G2906" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2906" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
       <c r="E2907" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2907" t="inlineStr"/>
       <c r="G2907" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
       <c r="E2908" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2908" t="inlineStr"/>
       <c r="G2908" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr"/>
+      <c r="G2909" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2909" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2910" t="inlineStr"/>
       <c r="G2910" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2910" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
       <c r="G2911" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2911" t="inlineStr">
@@ -93724,29 +92934,29 @@
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
       <c r="G2912" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2912" t="inlineStr">
@@ -93758,27 +92968,31 @@
     <row r="2913">
       <c r="A2913" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr"/>
+      <c r="G2913" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2913" t="inlineStr">
         <is>
           <t>3</t>
@@ -93788,27 +93002,31 @@
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
       <c r="E2914" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
+      <c r="G2914" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2914" t="inlineStr">
         <is>
           <t>3</t>
@@ -93818,27 +93036,31 @@
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
       <c r="E2915" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr"/>
+      <c r="G2915" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2915" t="inlineStr">
         <is>
           <t>3</t>
@@ -93848,23 +93070,31 @@
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr"/>
+      <c r="E2916" t="inlineStr">
+        <is>
+          <t>$609.1B</t>
+        </is>
+      </c>
       <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr"/>
+      <c r="G2916" t="inlineStr">
+        <is>
+          <t>$607.0B</t>
+        </is>
+      </c>
       <c r="H2916" t="inlineStr">
         <is>
           <t>3</t>
@@ -93874,165 +93104,161 @@
     <row r="2917">
       <c r="A2917" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
       <c r="E2917" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2917" t="inlineStr"/>
       <c r="H2917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2918" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr"/>
       <c r="E2918" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2918" t="inlineStr"/>
       <c r="G2918" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
       <c r="E2919" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2919" t="inlineStr"/>
       <c r="G2919" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2919" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr"/>
       <c r="G2920" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2920" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2921">
       <c r="A2921" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr"/>
       <c r="G2921" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2921" t="inlineStr">
@@ -94044,29 +93270,29 @@
     <row r="2922">
       <c r="A2922" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2922" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2922" t="inlineStr"/>
       <c r="E2922" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2922" t="inlineStr"/>
       <c r="G2922" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2922" t="inlineStr">
@@ -94078,29 +93304,29 @@
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2923" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2923" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2923" t="inlineStr"/>
       <c r="E2923" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2923" t="inlineStr"/>
       <c r="G2923" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2923" t="inlineStr">
@@ -94112,29 +93338,33 @@
     <row r="2924">
       <c r="A2924" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2924" t="inlineStr"/>
       <c r="E2924" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2924" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2924" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2924" t="inlineStr">
@@ -94146,199 +93376,179 @@
     <row r="2925">
       <c r="A2925" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2925" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2925" t="inlineStr"/>
       <c r="E2925" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2925" t="inlineStr"/>
       <c r="G2925" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2925" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2926">
       <c r="A2926" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2926" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2926" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2926" t="inlineStr"/>
       <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+      <c r="G2926" t="inlineStr"/>
       <c r="H2926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2927">
       <c r="A2927" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2927" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2927" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2927" t="inlineStr"/>
       <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2927" t="inlineStr"/>
       <c r="H2927" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2928">
       <c r="A2928" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2928" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2928" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2928" t="inlineStr"/>
       <c r="E2928" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2928" t="inlineStr"/>
       <c r="G2928" t="inlineStr">
         <is>
-          <t>8K</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2928" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2929">
       <c r="A2929" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2929" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2929" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2929" t="inlineStr"/>
       <c r="E2929" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2929" t="inlineStr"/>
       <c r="G2929" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2929" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2930" t="inlineStr"/>
       <c r="B2930" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2930" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2930" t="inlineStr"/>
       <c r="E2930" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2930" t="inlineStr"/>
       <c r="G2930" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2930" t="inlineStr">
@@ -94348,79 +93558,59 @@
       </c>
     </row>
     <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2931" t="inlineStr"/>
       <c r="B2931" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2931" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2931" t="inlineStr"/>
       <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2931" t="inlineStr"/>
       <c r="H2931" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2932">
-      <c r="A2932" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2932" t="inlineStr"/>
       <c r="B2932" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2932" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2932" t="inlineStr"/>
       <c r="E2932" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2932" t="inlineStr"/>
       <c r="G2932" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2932" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2933">
-      <c r="A2933" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2933" t="inlineStr"/>
       <c r="B2933" t="inlineStr">
         <is>
           <t>US</t>
@@ -94428,33 +93618,25 @@
       </c>
       <c r="C2933" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2933" t="inlineStr"/>
       <c r="E2933" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2933" t="inlineStr"/>
       <c r="H2933" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2934">
-      <c r="A2934" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2934" t="inlineStr"/>
       <c r="B2934" t="inlineStr">
         <is>
           <t>US</t>
@@ -94462,259 +93644,211 @@
       </c>
       <c r="C2934" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2934" t="inlineStr"/>
       <c r="E2934" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2934" t="inlineStr"/>
       <c r="H2934" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2935">
       <c r="A2935" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2935" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2935" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2935" t="inlineStr"/>
+      <c r="C2935" t="inlineStr"/>
       <c r="D2935" t="inlineStr"/>
-      <c r="E2935" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2935" t="inlineStr"/>
       <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2935" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2935" t="inlineStr"/>
+      <c r="H2935" t="inlineStr"/>
     </row>
     <row r="2936">
       <c r="A2936" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2936" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2936" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2936" t="inlineStr"/>
       <c r="E2936" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2936" t="inlineStr"/>
       <c r="G2936" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2936" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2937">
       <c r="A2937" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2937" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2937" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2937" t="inlineStr"/>
       <c r="E2937" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2937" t="inlineStr"/>
       <c r="G2937" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2938">
       <c r="A2938" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2938" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2938" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2938" t="inlineStr"/>
       <c r="E2938" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2938" t="inlineStr"/>
       <c r="G2938" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2939">
       <c r="A2939" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2939" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2939" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2939" t="inlineStr"/>
+      <c r="C2939" t="inlineStr"/>
       <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
+      <c r="E2939" t="inlineStr"/>
       <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2939" t="inlineStr"/>
+      <c r="H2939" t="inlineStr"/>
     </row>
     <row r="2940">
       <c r="A2940" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2940" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2940" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2940" t="inlineStr"/>
       <c r="E2940" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>¥3352.5B</t>
         </is>
       </c>
       <c r="F2940" t="inlineStr"/>
       <c r="G2940" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>¥ 1840B</t>
         </is>
       </c>
       <c r="H2940" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2941">
       <c r="A2941" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2941" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2941" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Bank Lending YoYJAN</t>
         </is>
       </c>
       <c r="D2941" t="inlineStr"/>
       <c r="E2941" t="inlineStr">
         <is>
-          <t>$609.1B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
+      <c r="G2941" t="inlineStr"/>
       <c r="H2941" t="inlineStr">
         <is>
           <t>3</t>
@@ -94724,27 +93858,27 @@
     <row r="2942">
       <c r="A2942" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2942" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2942" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
+      <c r="E2942" t="inlineStr"/>
       <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr"/>
+      <c r="G2942" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H2942" t="inlineStr">
         <is>
           <t>3</t>
@@ -94754,31 +93888,23 @@
     <row r="2943">
       <c r="A2943" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2943" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2943" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2024</t>
+          <t>Private House Approvals MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E2943" t="inlineStr"/>
       <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2943" t="inlineStr"/>
       <c r="H2943" t="inlineStr">
         <is>
           <t>3</t>
@@ -94786,101 +93912,69 @@
       </c>
     </row>
     <row r="2944">
-      <c r="A2944" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2944" t="inlineStr"/>
       <c r="B2944" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2944" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Motorbike Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2944" t="inlineStr"/>
       <c r="E2944" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>-5.5%</t>
         </is>
       </c>
       <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+      <c r="G2944" t="inlineStr"/>
       <c r="H2944" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2945">
       <c r="A2945" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2945" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2945" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
+          <t>Monday February 10 2025</t>
+        </is>
+      </c>
+      <c r="B2945" t="inlineStr"/>
+      <c r="C2945" t="inlineStr"/>
       <c r="D2945" t="inlineStr"/>
-      <c r="E2945" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="E2945" t="inlineStr"/>
       <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2945" t="inlineStr"/>
+      <c r="H2945" t="inlineStr"/>
     </row>
     <row r="2946">
       <c r="A2946" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2946" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2946" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>Eco Watchers Survey CurrentJAN</t>
         </is>
       </c>
       <c r="D2946" t="inlineStr"/>
       <c r="E2946" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
+      <c r="G2946" t="inlineStr"/>
       <c r="H2946" t="inlineStr">
         <is>
           <t>3</t>
@@ -94890,31 +93984,27 @@
     <row r="2947">
       <c r="A2947" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2947" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2947" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Eco Watchers Survey OutlookJAN</t>
         </is>
       </c>
       <c r="D2947" t="inlineStr"/>
       <c r="E2947" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="F2947" t="inlineStr"/>
-      <c r="G2947" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="G2947" t="inlineStr"/>
       <c r="H2947" t="inlineStr">
         <is>
           <t>3</t>
@@ -94924,31 +94014,27 @@
     <row r="2948">
       <c r="A2948" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2948" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2948" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2948" t="inlineStr"/>
       <c r="E2948" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.625%</t>
         </is>
       </c>
       <c r="F2948" t="inlineStr"/>
-      <c r="G2948" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2948" t="inlineStr"/>
       <c r="H2948" t="inlineStr">
         <is>
           <t>3</t>
@@ -94956,706 +94042,30 @@
       </c>
     </row>
     <row r="2949">
-      <c r="A2949" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2949" t="inlineStr"/>
       <c r="B2949" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2949" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2949" t="inlineStr"/>
       <c r="E2949" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2949" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F2949" t="inlineStr"/>
       <c r="G2949" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H2949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2950">
-      <c r="A2950" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2950" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2950" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2950" t="inlineStr"/>
-      <c r="E2950" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2950" t="inlineStr"/>
-      <c r="G2950" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2950" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2951">
-      <c r="A2951" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2951" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2951" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2951" t="inlineStr"/>
-      <c r="E2951" t="inlineStr"/>
-      <c r="F2951" t="inlineStr"/>
-      <c r="G2951" t="inlineStr"/>
-      <c r="H2951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2952">
-      <c r="A2952" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2952" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2952" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2952" t="inlineStr"/>
-      <c r="E2952" t="inlineStr"/>
-      <c r="F2952" t="inlineStr"/>
-      <c r="G2952" t="inlineStr"/>
-      <c r="H2952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2953">
-      <c r="A2953" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2953" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2953" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2953" t="inlineStr"/>
-      <c r="E2953" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2953" t="inlineStr"/>
-      <c r="G2953" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2954">
-      <c r="A2954" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2954" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2954" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2954" t="inlineStr"/>
-      <c r="E2954" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2954" t="inlineStr"/>
-      <c r="G2954" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2955">
-      <c r="A2955" t="inlineStr"/>
-      <c r="B2955" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2955" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2955" t="inlineStr"/>
-      <c r="E2955" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2955" t="inlineStr"/>
-      <c r="G2955" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2956">
-      <c r="A2956" t="inlineStr"/>
-      <c r="B2956" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2956" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2956" t="inlineStr"/>
-      <c r="E2956" t="inlineStr"/>
-      <c r="F2956" t="inlineStr"/>
-      <c r="G2956" t="inlineStr"/>
-      <c r="H2956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2957">
-      <c r="A2957" t="inlineStr"/>
-      <c r="B2957" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2957" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2957" t="inlineStr"/>
-      <c r="E2957" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2957" t="inlineStr"/>
-      <c r="G2957" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2958">
-      <c r="A2958" t="inlineStr"/>
-      <c r="B2958" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2958" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2958" t="inlineStr"/>
-      <c r="E2958" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2958" t="inlineStr"/>
-      <c r="G2958" t="inlineStr"/>
-      <c r="H2958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2959">
-      <c r="A2959" t="inlineStr"/>
-      <c r="B2959" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2959" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2959" t="inlineStr"/>
-      <c r="E2959" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2959" t="inlineStr"/>
-      <c r="G2959" t="inlineStr"/>
-      <c r="H2959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2960">
-      <c r="A2960" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2960" t="inlineStr"/>
-      <c r="C2960" t="inlineStr"/>
-      <c r="D2960" t="inlineStr"/>
-      <c r="E2960" t="inlineStr"/>
-      <c r="F2960" t="inlineStr"/>
-      <c r="G2960" t="inlineStr"/>
-      <c r="H2960" t="inlineStr"/>
-    </row>
-    <row r="2961">
-      <c r="A2961" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2961" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2961" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2961" t="inlineStr"/>
-      <c r="E2961" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2961" t="inlineStr"/>
-      <c r="G2961" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2961" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2962">
-      <c r="A2962" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2962" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2962" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2962" t="inlineStr"/>
-      <c r="E2962" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2962" t="inlineStr"/>
-      <c r="G2962" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2963">
-      <c r="A2963" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2963" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2963" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2963" t="inlineStr"/>
-      <c r="E2963" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2963" t="inlineStr"/>
-      <c r="G2963" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2964">
-      <c r="A2964" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2964" t="inlineStr"/>
-      <c r="C2964" t="inlineStr"/>
-      <c r="D2964" t="inlineStr"/>
-      <c r="E2964" t="inlineStr"/>
-      <c r="F2964" t="inlineStr"/>
-      <c r="G2964" t="inlineStr"/>
-      <c r="H2964" t="inlineStr"/>
-    </row>
-    <row r="2965">
-      <c r="A2965" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2965" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2965" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2965" t="inlineStr"/>
-      <c r="E2965" t="inlineStr">
-        <is>
-          <t>¥3352.5B</t>
-        </is>
-      </c>
-      <c r="F2965" t="inlineStr"/>
-      <c r="G2965" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
-      <c r="H2965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2966">
-      <c r="A2966" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2966" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2966" t="inlineStr">
-        <is>
-          <t>Bank Lending YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2966" t="inlineStr"/>
-      <c r="E2966" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F2966" t="inlineStr"/>
-      <c r="G2966" t="inlineStr"/>
-      <c r="H2966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2967">
-      <c r="A2967" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2967" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2967" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2967" t="inlineStr"/>
-      <c r="E2967" t="inlineStr"/>
-      <c r="F2967" t="inlineStr"/>
-      <c r="G2967" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2968">
-      <c r="A2968" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2968" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2968" t="inlineStr">
-        <is>
-          <t>Private House Approvals MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2968" t="inlineStr"/>
-      <c r="E2968" t="inlineStr"/>
-      <c r="F2968" t="inlineStr"/>
-      <c r="G2968" t="inlineStr"/>
-      <c r="H2968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2969">
-      <c r="A2969" t="inlineStr"/>
-      <c r="B2969" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2969" t="inlineStr">
-        <is>
-          <t>Motorbike Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2969" t="inlineStr"/>
-      <c r="E2969" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="F2969" t="inlineStr"/>
-      <c r="G2969" t="inlineStr"/>
-      <c r="H2969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2970">
-      <c r="A2970" t="inlineStr">
-        <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B2970" t="inlineStr"/>
-      <c r="C2970" t="inlineStr"/>
-      <c r="D2970" t="inlineStr"/>
-      <c r="E2970" t="inlineStr"/>
-      <c r="F2970" t="inlineStr"/>
-      <c r="G2970" t="inlineStr"/>
-      <c r="H2970" t="inlineStr"/>
-    </row>
-    <row r="2971">
-      <c r="A2971" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2971" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2971" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey CurrentJAN</t>
-        </is>
-      </c>
-      <c r="D2971" t="inlineStr"/>
-      <c r="E2971" t="inlineStr">
-        <is>
-          <t>49.9</t>
-        </is>
-      </c>
-      <c r="F2971" t="inlineStr"/>
-      <c r="G2971" t="inlineStr"/>
-      <c r="H2971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2972">
-      <c r="A2972" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2972" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2972" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookJAN</t>
-        </is>
-      </c>
-      <c r="D2972" t="inlineStr"/>
-      <c r="E2972" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="F2972" t="inlineStr"/>
-      <c r="G2972" t="inlineStr"/>
-      <c r="H2972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2973">
-      <c r="A2973" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2973" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2973" t="inlineStr">
-        <is>
-          <t>3-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2973" t="inlineStr"/>
-      <c r="E2973" t="inlineStr">
-        <is>
-          <t>2.625%</t>
-        </is>
-      </c>
-      <c r="F2973" t="inlineStr"/>
-      <c r="G2973" t="inlineStr"/>
-      <c r="H2973" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2965"/>
+  <dimension ref="A1:H2941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82585,10 +82585,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2572">
@@ -82619,10 +82617,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2573">
@@ -82657,10 +82653,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2574">
@@ -82687,10 +82681,8 @@
       </c>
       <c r="F2574" t="inlineStr"/>
       <c r="G2574" t="inlineStr"/>
-      <c r="H2574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2575">
@@ -82725,10 +82717,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2575" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2576">
@@ -82759,10 +82749,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2577">
@@ -82797,10 +82785,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2578">
@@ -82823,10 +82809,8 @@
       <c r="E2578" t="inlineStr"/>
       <c r="F2578" t="inlineStr"/>
       <c r="G2578" t="inlineStr"/>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -82853,10 +82837,8 @@
       </c>
       <c r="F2579" t="inlineStr"/>
       <c r="G2579" t="inlineStr"/>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2580">
@@ -82883,10 +82865,8 @@
       </c>
       <c r="F2580" t="inlineStr"/>
       <c r="G2580" t="inlineStr"/>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2581">
@@ -82913,10 +82893,8 @@
       </c>
       <c r="F2581" t="inlineStr"/>
       <c r="G2581" t="inlineStr"/>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -82943,10 +82921,8 @@
       </c>
       <c r="F2582" t="inlineStr"/>
       <c r="G2582" t="inlineStr"/>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -82973,10 +82949,8 @@
       </c>
       <c r="F2583" t="inlineStr"/>
       <c r="G2583" t="inlineStr"/>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83003,10 +82977,8 @@
       </c>
       <c r="F2584" t="inlineStr"/>
       <c r="G2584" t="inlineStr"/>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2585">
@@ -83033,10 +83005,8 @@
       </c>
       <c r="F2585" t="inlineStr"/>
       <c r="G2585" t="inlineStr"/>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2586">
@@ -83063,10 +83033,8 @@
       </c>
       <c r="F2586" t="inlineStr"/>
       <c r="G2586" t="inlineStr"/>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2587">
@@ -83093,10 +83061,8 @@
       </c>
       <c r="F2587" t="inlineStr"/>
       <c r="G2587" t="inlineStr"/>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2588">
@@ -83123,10 +83089,8 @@
       </c>
       <c r="F2588" t="inlineStr"/>
       <c r="G2588" t="inlineStr"/>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83153,10 +83117,8 @@
       </c>
       <c r="F2589" t="inlineStr"/>
       <c r="G2589" t="inlineStr"/>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83183,10 +83145,8 @@
       </c>
       <c r="F2590" t="inlineStr"/>
       <c r="G2590" t="inlineStr"/>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83217,10 +83177,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83251,10 +83209,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83285,10 +83241,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83319,10 +83273,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83353,10 +83305,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2596">
@@ -83391,10 +83341,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2597">
@@ -83421,10 +83369,8 @@
       </c>
       <c r="F2597" t="inlineStr"/>
       <c r="G2597" t="inlineStr"/>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2598">
@@ -83451,10 +83397,8 @@
       </c>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2599">
@@ -83481,10 +83425,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83515,10 +83457,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83553,10 +83493,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2602">
@@ -83587,10 +83525,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2603">
@@ -83625,10 +83561,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2604">
@@ -83663,10 +83597,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2605">
@@ -83701,10 +83633,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -83739,10 +83669,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -83777,10 +83705,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2608">
@@ -83811,10 +83737,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2609">
@@ -83849,10 +83773,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2610">
@@ -83887,10 +83809,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2611">
@@ -83925,10 +83845,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2612">
@@ -83959,10 +83877,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2613">
@@ -83993,10 +83909,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2614">
@@ -84031,10 +83945,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2615">
@@ -84057,10 +83969,8 @@
       <c r="E2615" t="inlineStr"/>
       <c r="F2615" t="inlineStr"/>
       <c r="G2615" t="inlineStr"/>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2616">
@@ -84095,10 +84005,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2617">
@@ -84133,10 +84041,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2618">
@@ -84171,10 +84077,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84209,10 +84113,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2620">
@@ -84243,10 +84145,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84273,10 +84173,8 @@
       </c>
       <c r="F2621" t="inlineStr"/>
       <c r="G2621" t="inlineStr"/>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2622">
@@ -84303,10 +84201,8 @@
       </c>
       <c r="F2622" t="inlineStr"/>
       <c r="G2622" t="inlineStr"/>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2623">
@@ -84337,10 +84233,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2624">
@@ -84371,10 +84265,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2625">
@@ -84405,10 +84297,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84435,10 +84325,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84465,10 +84353,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2628">
@@ -84495,10 +84381,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2629">
@@ -84525,10 +84409,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2630">
@@ -84555,10 +84437,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2631">
@@ -84585,10 +84465,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2632">
@@ -84633,10 +84511,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -84667,10 +84543,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2635">
@@ -84701,10 +84575,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2636">
@@ -84735,10 +84607,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2637">
@@ -84761,10 +84631,8 @@
       <c r="E2637" t="inlineStr"/>
       <c r="F2637" t="inlineStr"/>
       <c r="G2637" t="inlineStr"/>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -84795,10 +84663,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2639">
@@ -84833,10 +84699,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -84867,10 +84731,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -84901,10 +84763,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -84935,10 +84795,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -84973,10 +84831,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2644">
@@ -85007,10 +84863,8 @@
           <t>48.5</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2645">
@@ -85045,10 +84899,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2646">
@@ -85079,10 +84931,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2647">
@@ -85113,10 +84963,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85147,10 +84995,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85181,10 +85027,8 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85211,10 +85055,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2651">
@@ -85263,10 +85105,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85293,10 +85133,8 @@
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
@@ -85327,10 +85165,8 @@
           <t>-11.0%</t>
         </is>
       </c>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2655">
@@ -85361,10 +85197,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2656">
@@ -85399,10 +85233,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2657">
@@ -85437,10 +85269,8 @@
           <t>41.0%</t>
         </is>
       </c>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2658">
@@ -85471,10 +85301,8 @@
           <t>49.3</t>
         </is>
       </c>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -85505,10 +85333,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -85539,10 +85365,8 @@
           <t>27.0%</t>
         </is>
       </c>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -85569,10 +85393,8 @@
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2662">
@@ -85599,10 +85421,8 @@
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2663">
@@ -85629,10 +85449,8 @@
       </c>
       <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr"/>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2664">
@@ -85659,10 +85477,8 @@
       </c>
       <c r="F2664" t="inlineStr"/>
       <c r="G2664" t="inlineStr"/>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -85697,10 +85513,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -85735,10 +85549,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2667">
@@ -85773,10 +85585,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2668">
@@ -85807,10 +85617,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -85845,10 +85653,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2670">
@@ -85875,10 +85681,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2671">
@@ -85905,10 +85709,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2672">
@@ -85935,10 +85737,8 @@
       </c>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2673">
@@ -85965,10 +85765,8 @@
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2674">
@@ -85995,10 +85793,8 @@
       </c>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2675">
@@ -86025,10 +85821,8 @@
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2676">
@@ -86055,10 +85849,8 @@
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -86085,10 +85877,8 @@
       </c>
       <c r="F2677" t="inlineStr"/>
       <c r="G2677" t="inlineStr"/>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -86119,10 +85909,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -86153,10 +85941,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -86187,10 +85973,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -86217,10 +86001,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -86247,10 +86029,8 @@
       </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2683">
@@ -86277,10 +86057,8 @@
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -86311,10 +86089,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -86349,10 +86125,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2686">
@@ -86383,10 +86157,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2687">
@@ -86417,10 +86189,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2688">
@@ -86451,10 +86221,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -86485,10 +86253,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -86519,10 +86285,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -86549,10 +86313,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2692">
@@ -86579,10 +86341,8 @@
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -86605,10 +86365,8 @@
       <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2694">
@@ -86631,10 +86389,8 @@
       <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86657,10 +86413,8 @@
       <c r="E2695" t="inlineStr"/>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2696">
@@ -86687,10 +86441,8 @@
       </c>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -86717,10 +86469,8 @@
       </c>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -86751,10 +86501,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -86773,10 +86521,8 @@
       <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -86795,10 +86541,8 @@
       <c r="E2700" t="inlineStr"/>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -86825,10 +86569,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -86869,10 +86611,8 @@
       </c>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2704">
@@ -86899,10 +86639,8 @@
       </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -86929,10 +86667,8 @@
       </c>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -86959,10 +86695,8 @@
       </c>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -86993,10 +86727,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -87023,10 +86755,8 @@
       </c>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -87049,10 +86779,8 @@
       <c r="E2709" t="inlineStr"/>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2710">
@@ -87083,10 +86811,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -87117,10 +86843,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87151,10 +86875,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2713">
@@ -87181,10 +86903,8 @@
       </c>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87215,10 +86935,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87249,10 +86967,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2716">
@@ -87283,10 +86999,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2717">
@@ -87317,10 +87031,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -87351,10 +87063,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87385,10 +87095,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -87411,10 +87119,8 @@
       <c r="E2720" t="inlineStr"/>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2721">
@@ -87437,10 +87143,8 @@
       <c r="E2721" t="inlineStr"/>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2722">
@@ -87467,10 +87171,8 @@
       </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -87497,10 +87199,8 @@
       </c>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2724">
@@ -87531,10 +87231,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2725">
@@ -87565,10 +87263,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87599,10 +87295,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -87633,10 +87327,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -87667,10 +87359,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -87701,10 +87391,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -87735,10 +87423,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2731">
@@ -87773,10 +87459,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2732">
@@ -87807,10 +87491,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2733">
@@ -87841,10 +87523,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -87875,10 +87555,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2735">
@@ -87909,10 +87587,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -87943,10 +87619,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2737">
@@ -87977,10 +87651,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -88011,10 +87683,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2739">
@@ -88041,10 +87711,8 @@
           <t>$-9.4B</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -88067,10 +87735,8 @@
           <t>$24.3B</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -88093,10 +87759,8 @@
           <t>$33.7B</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -88119,10 +87783,8 @@
       </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -88171,10 +87833,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88209,10 +87869,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -88243,10 +87901,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88277,10 +87933,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -88311,10 +87965,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -88345,10 +87997,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88375,10 +88025,8 @@
       </c>
       <c r="F2750" t="inlineStr"/>
       <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -88409,10 +88057,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2752">
@@ -88439,10 +88085,8 @@
       </c>
       <c r="F2752" t="inlineStr"/>
       <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2753">
@@ -88469,10 +88113,8 @@
       </c>
       <c r="F2753" t="inlineStr"/>
       <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -88499,10 +88141,8 @@
       </c>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2755">
@@ -88529,10 +88169,8 @@
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2756">
@@ -88567,10 +88205,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2757">
@@ -88605,10 +88241,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2758">
@@ -88643,10 +88277,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2759">
@@ -88681,10 +88313,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2760">
@@ -88719,10 +88349,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2761">
@@ -88757,10 +88385,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2762">
@@ -88791,10 +88417,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2763">
@@ -88825,10 +88449,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -88859,10 +88481,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -88897,10 +88517,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2766">
@@ -88935,10 +88553,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -88969,10 +88585,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -89003,10 +88617,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -89033,10 +88645,8 @@
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -89063,10 +88673,8 @@
       </c>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -89093,10 +88701,8 @@
       </c>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -89123,10 +88729,8 @@
       </c>
       <c r="F2772" t="inlineStr"/>
       <c r="G2772" t="inlineStr"/>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -89157,10 +88761,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2774">
@@ -89191,10 +88793,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -89225,10 +88825,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89259,10 +88857,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -89289,10 +88885,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2778">
@@ -89319,10 +88913,8 @@
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89349,10 +88941,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89379,10 +88969,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -89409,10 +88997,8 @@
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr"/>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -89443,10 +89029,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2783">
@@ -89477,10 +89061,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -89511,10 +89093,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2785">
@@ -89545,10 +89125,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2786">
@@ -89579,10 +89157,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89613,10 +89189,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -89647,10 +89221,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2789">
@@ -89681,10 +89253,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2790">
@@ -89715,10 +89285,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2791">
@@ -89741,10 +89309,8 @@
       <c r="E2791" t="inlineStr"/>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -89775,10 +89341,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -89809,10 +89373,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -89847,10 +89409,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2795">
@@ -89885,10 +89445,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2796">
@@ -89919,10 +89477,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2797">
@@ -89953,10 +89509,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -89987,10 +89541,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -90021,10 +89573,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -90055,10 +89605,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -90085,10 +89633,8 @@
       </c>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2802">
@@ -90115,10 +89661,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2803">
@@ -90145,10 +89689,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90175,10 +89717,8 @@
       </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -90205,10 +89745,8 @@
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -90235,10 +89773,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -90265,10 +89801,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90295,10 +89829,8 @@
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90325,10 +89857,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90359,10 +89889,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2811">
@@ -90393,10 +89921,8 @@
           <t>6.8</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -90427,10 +89953,8 @@
           <t>RUB 26.0T</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -90461,10 +89985,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90495,10 +90017,8 @@
           <t>7.0%</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -90529,10 +90049,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -90559,10 +90077,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90589,10 +90105,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -90615,10 +90129,8 @@
       <c r="E2818" t="inlineStr"/>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -90649,10 +90161,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -90683,10 +90193,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90717,10 +90225,8 @@
           <t>-16</t>
         </is>
       </c>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90751,10 +90257,8 @@
           <t>$10.0B</t>
         </is>
       </c>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -90781,10 +90285,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -90811,10 +90313,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90845,10 +90345,8 @@
           <t>A$5.2B</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2826">
@@ -90875,10 +90373,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -90905,10 +90401,8 @@
       </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -90935,10 +90429,8 @@
       </c>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -90965,10 +90457,8 @@
       </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -90991,10 +90481,8 @@
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -91039,10 +90527,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -91069,10 +90555,8 @@
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -91099,10 +90583,8 @@
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -91129,10 +90611,8 @@
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2836">
@@ -91159,10 +90639,8 @@
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -91193,10 +90671,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2838">
@@ -91227,10 +90703,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2839">
@@ -91261,10 +90735,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2840">
@@ -91287,10 +90759,8 @@
       <c r="E2840" t="inlineStr"/>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -91317,10 +90787,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -91351,10 +90819,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2843">
@@ -91389,10 +90855,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2844">
@@ -91415,10 +90879,8 @@
       <c r="E2844" t="inlineStr"/>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2845">
@@ -91445,10 +90907,8 @@
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2846">
@@ -91475,10 +90935,8 @@
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2847">
@@ -91505,10 +90963,8 @@
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2848">
@@ -91531,10 +90987,8 @@
       <c r="E2848" t="inlineStr"/>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2849">
@@ -91565,10 +91019,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2850">
@@ -91599,10 +91051,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2851">
@@ -91633,10 +91083,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2852">
@@ -91667,10 +91115,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2853">
@@ -91701,10 +91147,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -91735,10 +91179,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -91769,10 +91211,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2856">
@@ -91799,10 +91239,8 @@
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -91829,10 +91267,8 @@
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
@@ -91859,10 +91295,8 @@
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2859">
@@ -91889,10 +91323,8 @@
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr"/>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2860">
@@ -91919,10 +91351,8 @@
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2861">
@@ -91949,10 +91379,8 @@
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2862">
@@ -91983,10 +91411,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2863">
@@ -92009,10 +91435,8 @@
       <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2864">
@@ -92039,10 +91463,8 @@
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2865">
@@ -92073,10 +91495,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2866">
@@ -92107,10 +91527,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2867">
@@ -92137,10 +91555,8 @@
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2868">
@@ -92167,10 +91583,8 @@
       </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2869">
@@ -92201,10 +91615,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2870">
@@ -92235,10 +91647,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2871">
@@ -92261,10 +91671,8 @@
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2872">
@@ -92287,10 +91695,8 @@
       </c>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2873">
@@ -92313,10 +91719,8 @@
       </c>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2874">
@@ -92339,10 +91743,8 @@
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2875">
@@ -92365,10 +91767,8 @@
       </c>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr"/>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2876">
@@ -92391,10 +91791,8 @@
       </c>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2877">
@@ -92417,52 +91815,70 @@
       </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr"/>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2878" t="inlineStr"/>
-      <c r="C2878" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2878" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr"/>
+      <c r="E2878" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
       <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr"/>
+      <c r="G2878" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="H2878" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
@@ -92474,29 +91890,29 @@
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>108.2</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
@@ -92508,29 +91924,29 @@
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
@@ -92542,97 +91958,97 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2883" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2884" t="inlineStr">
@@ -92644,61 +92060,65 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="H2885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr"/>
+      <c r="G2886" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2886" t="inlineStr">
         <is>
           <t>2</t>
@@ -92708,27 +92128,31 @@
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr"/>
+      <c r="G2887" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2887" t="inlineStr">
         <is>
           <t>2</t>
@@ -92738,221 +92162,233 @@
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr"/>
+      <c r="E2888" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr"/>
+      <c r="G2888" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
+      <c r="G2892" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2892" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
       <c r="G2893" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2893" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
       <c r="G2894" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2894" t="inlineStr">
@@ -92964,29 +92400,29 @@
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
@@ -92998,27 +92434,31 @@
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr"/>
+      <c r="G2896" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2896" t="inlineStr">
         <is>
           <t>3</t>
@@ -93028,27 +92468,31 @@
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr"/>
+      <c r="G2897" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2897" t="inlineStr">
         <is>
           <t>3</t>
@@ -93058,27 +92502,31 @@
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr"/>
+      <c r="G2898" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2898" t="inlineStr">
         <is>
           <t>3</t>
@@ -93088,23 +92536,31 @@
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr"/>
+      <c r="E2899" t="inlineStr">
+        <is>
+          <t>$609.1B</t>
+        </is>
+      </c>
       <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr"/>
+      <c r="G2899" t="inlineStr">
+        <is>
+          <t>$607.0B</t>
+        </is>
+      </c>
       <c r="H2899" t="inlineStr">
         <is>
           <t>3</t>
@@ -93114,165 +92570,161 @@
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2900" t="inlineStr"/>
       <c r="H2900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
       <c r="G2902" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2902" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
       <c r="G2903" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2903" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr"/>
       <c r="G2904" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2904" t="inlineStr">
@@ -93284,29 +92736,29 @@
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2905" t="inlineStr"/>
       <c r="G2905" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2905" t="inlineStr">
@@ -93318,29 +92770,29 @@
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
       <c r="E2906" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2906" t="inlineStr"/>
       <c r="G2906" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2906" t="inlineStr">
@@ -93352,29 +92804,33 @@
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
       <c r="E2907" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2907" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2907" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2907" t="inlineStr">
@@ -93386,199 +92842,179 @@
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
       <c r="E2908" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2908" t="inlineStr"/>
       <c r="G2908" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2908" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2909" t="inlineStr"/>
       <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+      <c r="G2909" t="inlineStr"/>
       <c r="H2909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2910" t="inlineStr"/>
       <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2910" t="inlineStr"/>
       <c r="H2910" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
       <c r="G2911" t="inlineStr">
         <is>
-          <t>8K</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2911" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
       <c r="G2912" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2912" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2913" t="inlineStr"/>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2913" t="inlineStr"/>
       <c r="G2913" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2913" t="inlineStr">
@@ -93588,79 +93024,59 @@
       </c>
     </row>
     <row r="2914">
-      <c r="A2914" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2914" t="inlineStr"/>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2914" t="inlineStr"/>
       <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2914" t="inlineStr"/>
       <c r="H2914" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2915">
-      <c r="A2915" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2915" t="inlineStr"/>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
       <c r="E2915" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2915" t="inlineStr"/>
       <c r="G2915" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2915" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2916">
-      <c r="A2916" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2916" t="inlineStr"/>
       <c r="B2916" t="inlineStr">
         <is>
           <t>US</t>
@@ -93668,33 +93084,25 @@
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
       <c r="E2916" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2916" t="inlineStr"/>
       <c r="H2916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2917" t="inlineStr"/>
       <c r="B2917" t="inlineStr">
         <is>
           <t>US</t>
@@ -93702,259 +93110,211 @@
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
       <c r="E2917" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2917" t="inlineStr"/>
       <c r="H2917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2918" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2918" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2918" t="inlineStr"/>
+      <c r="C2918" t="inlineStr"/>
       <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2918" t="inlineStr"/>
       <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2918" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2918" t="inlineStr"/>
+      <c r="H2918" t="inlineStr"/>
     </row>
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
       <c r="E2919" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2919" t="inlineStr"/>
       <c r="G2919" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2919" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr"/>
       <c r="G2920" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2921">
       <c r="A2921" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr"/>
       <c r="G2921" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2922">
       <c r="A2922" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2922" t="inlineStr"/>
+      <c r="C2922" t="inlineStr"/>
       <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
+      <c r="E2922" t="inlineStr"/>
       <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2922" t="inlineStr"/>
+      <c r="H2922" t="inlineStr"/>
     </row>
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2923" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2923" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2923" t="inlineStr"/>
       <c r="E2923" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>¥3352.5B</t>
         </is>
       </c>
       <c r="F2923" t="inlineStr"/>
       <c r="G2923" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>¥ 1840B</t>
         </is>
       </c>
       <c r="H2923" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2924">
       <c r="A2924" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Bank Lending YoYJAN</t>
         </is>
       </c>
       <c r="D2924" t="inlineStr"/>
       <c r="E2924" t="inlineStr">
         <is>
-          <t>$609.1B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
+      <c r="G2924" t="inlineStr"/>
       <c r="H2924" t="inlineStr">
         <is>
           <t>3</t>
@@ -93964,27 +93324,27 @@
     <row r="2925">
       <c r="A2925" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2925" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
+      <c r="E2925" t="inlineStr"/>
       <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr"/>
+      <c r="G2925" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H2925" t="inlineStr">
         <is>
           <t>3</t>
@@ -93994,31 +93354,23 @@
     <row r="2926">
       <c r="A2926" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2926" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2926" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2024</t>
+          <t>Private House Approvals MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E2926" t="inlineStr"/>
       <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2926" t="inlineStr"/>
       <c r="H2926" t="inlineStr">
         <is>
           <t>3</t>
@@ -94026,101 +93378,69 @@
       </c>
     </row>
     <row r="2927">
-      <c r="A2927" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2927" t="inlineStr"/>
       <c r="B2927" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2927" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Motorbike Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2927" t="inlineStr"/>
       <c r="E2927" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>-5.5%</t>
         </is>
       </c>
       <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+      <c r="G2927" t="inlineStr"/>
       <c r="H2927" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2928">
       <c r="A2928" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2928" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2928" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
+          <t>Monday February 10 2025</t>
+        </is>
+      </c>
+      <c r="B2928" t="inlineStr"/>
+      <c r="C2928" t="inlineStr"/>
       <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="E2928" t="inlineStr"/>
       <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2928" t="inlineStr"/>
+      <c r="H2928" t="inlineStr"/>
     </row>
     <row r="2929">
       <c r="A2929" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2929" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2929" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>Eco Watchers Survey CurrentJAN</t>
         </is>
       </c>
       <c r="D2929" t="inlineStr"/>
       <c r="E2929" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
+      <c r="G2929" t="inlineStr"/>
       <c r="H2929" t="inlineStr">
         <is>
           <t>3</t>
@@ -94130,31 +93450,27 @@
     <row r="2930">
       <c r="A2930" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2930" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2930" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Eco Watchers Survey OutlookJAN</t>
         </is>
       </c>
       <c r="D2930" t="inlineStr"/>
       <c r="E2930" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="G2930" t="inlineStr"/>
       <c r="H2930" t="inlineStr">
         <is>
           <t>3</t>
@@ -94164,31 +93480,27 @@
     <row r="2931">
       <c r="A2931" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2931" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2931" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2931" t="inlineStr"/>
       <c r="E2931" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.625%</t>
         </is>
       </c>
       <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2931" t="inlineStr"/>
       <c r="H2931" t="inlineStr">
         <is>
           <t>3</t>
@@ -94198,67 +93510,63 @@
     <row r="2932">
       <c r="A2932" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2932" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2932" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2932" t="inlineStr"/>
       <c r="E2932" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2932" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2932" t="inlineStr"/>
       <c r="G2932" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="H2932" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2933">
       <c r="A2933" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2933" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2933" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2933" t="inlineStr"/>
       <c r="E2933" t="inlineStr">
         <is>
-          <t>$4.8B</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="F2933" t="inlineStr"/>
       <c r="G2933" t="inlineStr">
         <is>
-          <t>$4.1B</t>
+          <t>8.50%</t>
         </is>
       </c>
       <c r="H2933" t="inlineStr">
@@ -94270,23 +93578,31 @@
     <row r="2934">
       <c r="A2934" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2934" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2934" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2934" t="inlineStr"/>
-      <c r="E2934" t="inlineStr"/>
+      <c r="E2934" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr"/>
+      <c r="G2934" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H2934" t="inlineStr">
         <is>
           <t>3</t>
@@ -94296,23 +93612,31 @@
     <row r="2935">
       <c r="A2935" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2935" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2935" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D2935" t="inlineStr"/>
-      <c r="E2935" t="inlineStr"/>
+      <c r="E2935" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
       <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr"/>
+      <c r="G2935" t="inlineStr">
+        <is>
+          <t>54.6%</t>
+        </is>
+      </c>
       <c r="H2935" t="inlineStr">
         <is>
           <t>3</t>
@@ -94320,14 +93644,10 @@
       </c>
     </row>
     <row r="2936">
-      <c r="A2936" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
+      <c r="A2936" t="inlineStr"/>
       <c r="B2936" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2936" t="inlineStr">
@@ -94338,13 +93658,13 @@
       <c r="D2936" t="inlineStr"/>
       <c r="E2936" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F2936" t="inlineStr"/>
       <c r="G2936" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H2936" t="inlineStr">
@@ -94354,33 +93674,21 @@
       </c>
     </row>
     <row r="2937">
-      <c r="A2937" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A2937" t="inlineStr"/>
       <c r="B2937" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2937" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>New Yuan LoansJAN</t>
         </is>
       </c>
       <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
+      <c r="E2937" t="inlineStr"/>
       <c r="F2937" t="inlineStr"/>
-      <c r="G2937" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
+      <c r="G2937" t="inlineStr"/>
       <c r="H2937" t="inlineStr">
         <is>
           <t>3</t>
@@ -94396,21 +93704,17 @@
       </c>
       <c r="C2938" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>M2 Money Supply YoYJAN</t>
         </is>
       </c>
       <c r="D2938" t="inlineStr"/>
       <c r="E2938" t="inlineStr">
         <is>
-          <t>$3.202T</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="F2938" t="inlineStr"/>
-      <c r="G2938" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
+      <c r="G2938" t="inlineStr"/>
       <c r="H2938" t="inlineStr">
         <is>
           <t>3</t>
@@ -94421,16 +93725,20 @@
       <c r="A2939" t="inlineStr"/>
       <c r="B2939" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2939" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceJAN</t>
+          <t>Outstanding Loan Growth YoYJAN</t>
         </is>
       </c>
       <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr"/>
+      <c r="E2939" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="F2939" t="inlineStr"/>
       <c r="G2939" t="inlineStr"/>
       <c r="H2939" t="inlineStr">
@@ -94443,26 +93751,18 @@
       <c r="A2940" t="inlineStr"/>
       <c r="B2940" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2940" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceDEC</t>
+          <t>Total Social FinancingJAN</t>
         </is>
       </c>
       <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
+      <c r="E2940" t="inlineStr"/>
       <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
+      <c r="G2940" t="inlineStr"/>
       <c r="H2940" t="inlineStr">
         <is>
           <t>3</t>
@@ -94473,691 +93773,23 @@
       <c r="A2941" t="inlineStr"/>
       <c r="B2941" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2941" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2941" t="inlineStr"/>
       <c r="E2941" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>10.5%</t>
         </is>
       </c>
       <c r="F2941" t="inlineStr"/>
       <c r="G2941" t="inlineStr"/>
       <c r="H2941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2942">
-      <c r="A2942" t="inlineStr"/>
-      <c r="B2942" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2942" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr"/>
-      <c r="H2942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2943">
-      <c r="A2943" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2943" t="inlineStr"/>
-      <c r="C2943" t="inlineStr"/>
-      <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr"/>
-      <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr"/>
-      <c r="H2943" t="inlineStr"/>
-    </row>
-    <row r="2944">
-      <c r="A2944" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2944" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2944" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2944" t="inlineStr"/>
-      <c r="E2944" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2944" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2945">
-      <c r="A2945" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2945" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2945" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2945" t="inlineStr"/>
-      <c r="E2945" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2945" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2946">
-      <c r="A2946" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2946" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2946" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2946" t="inlineStr"/>
-      <c r="E2946" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2946" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2947">
-      <c r="A2947" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2947" t="inlineStr"/>
-      <c r="C2947" t="inlineStr"/>
-      <c r="D2947" t="inlineStr"/>
-      <c r="E2947" t="inlineStr"/>
-      <c r="F2947" t="inlineStr"/>
-      <c r="G2947" t="inlineStr"/>
-      <c r="H2947" t="inlineStr"/>
-    </row>
-    <row r="2948">
-      <c r="A2948" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2948" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2948" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2948" t="inlineStr"/>
-      <c r="E2948" t="inlineStr">
-        <is>
-          <t>¥3352.5B</t>
-        </is>
-      </c>
-      <c r="F2948" t="inlineStr"/>
-      <c r="G2948" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
-      <c r="H2948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2949">
-      <c r="A2949" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2949" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2949" t="inlineStr">
-        <is>
-          <t>Bank Lending YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2949" t="inlineStr"/>
-      <c r="E2949" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F2949" t="inlineStr"/>
-      <c r="G2949" t="inlineStr"/>
-      <c r="H2949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2950">
-      <c r="A2950" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2950" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2950" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2950" t="inlineStr"/>
-      <c r="E2950" t="inlineStr"/>
-      <c r="F2950" t="inlineStr"/>
-      <c r="G2950" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2951">
-      <c r="A2951" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2951" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2951" t="inlineStr">
-        <is>
-          <t>Private House Approvals MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2951" t="inlineStr"/>
-      <c r="E2951" t="inlineStr"/>
-      <c r="F2951" t="inlineStr"/>
-      <c r="G2951" t="inlineStr"/>
-      <c r="H2951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2952">
-      <c r="A2952" t="inlineStr"/>
-      <c r="B2952" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2952" t="inlineStr">
-        <is>
-          <t>Motorbike Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2952" t="inlineStr"/>
-      <c r="E2952" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="F2952" t="inlineStr"/>
-      <c r="G2952" t="inlineStr"/>
-      <c r="H2952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2953">
-      <c r="A2953" t="inlineStr">
-        <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B2953" t="inlineStr"/>
-      <c r="C2953" t="inlineStr"/>
-      <c r="D2953" t="inlineStr"/>
-      <c r="E2953" t="inlineStr"/>
-      <c r="F2953" t="inlineStr"/>
-      <c r="G2953" t="inlineStr"/>
-      <c r="H2953" t="inlineStr"/>
-    </row>
-    <row r="2954">
-      <c r="A2954" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2954" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2954" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey CurrentJAN</t>
-        </is>
-      </c>
-      <c r="D2954" t="inlineStr"/>
-      <c r="E2954" t="inlineStr">
-        <is>
-          <t>49.9</t>
-        </is>
-      </c>
-      <c r="F2954" t="inlineStr"/>
-      <c r="G2954" t="inlineStr"/>
-      <c r="H2954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2955">
-      <c r="A2955" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2955" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2955" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookJAN</t>
-        </is>
-      </c>
-      <c r="D2955" t="inlineStr"/>
-      <c r="E2955" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="F2955" t="inlineStr"/>
-      <c r="G2955" t="inlineStr"/>
-      <c r="H2955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2956">
-      <c r="A2956" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2956" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2956" t="inlineStr">
-        <is>
-          <t>3-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2956" t="inlineStr"/>
-      <c r="E2956" t="inlineStr">
-        <is>
-          <t>2.625%</t>
-        </is>
-      </c>
-      <c r="F2956" t="inlineStr"/>
-      <c r="G2956" t="inlineStr"/>
-      <c r="H2956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2957">
-      <c r="A2957" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2957" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2957" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2957" t="inlineStr"/>
-      <c r="E2957" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2957" t="inlineStr"/>
-      <c r="G2957" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="H2957" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2958">
-      <c r="A2958" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2958" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2958" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2958" t="inlineStr"/>
-      <c r="E2958" t="inlineStr">
-        <is>
-          <t>8.6%</t>
-        </is>
-      </c>
-      <c r="F2958" t="inlineStr"/>
-      <c r="G2958" t="inlineStr">
-        <is>
-          <t>8.50%</t>
-        </is>
-      </c>
-      <c r="H2958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2959">
-      <c r="A2959" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2959" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2959" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2959" t="inlineStr"/>
-      <c r="E2959" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F2959" t="inlineStr"/>
-      <c r="G2959" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2960">
-      <c r="A2960" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2960" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2960" t="inlineStr">
-        <is>
-          <t>Participation RateDEC</t>
-        </is>
-      </c>
-      <c r="D2960" t="inlineStr"/>
-      <c r="E2960" t="inlineStr">
-        <is>
-          <t>54.2%</t>
-        </is>
-      </c>
-      <c r="F2960" t="inlineStr"/>
-      <c r="G2960" t="inlineStr">
-        <is>
-          <t>54.6%</t>
-        </is>
-      </c>
-      <c r="H2960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2961">
-      <c r="A2961" t="inlineStr"/>
-      <c r="B2961" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2961" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2961" t="inlineStr"/>
-      <c r="E2961" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F2961" t="inlineStr"/>
-      <c r="G2961" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2962">
-      <c r="A2962" t="inlineStr"/>
-      <c r="B2962" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2962" t="inlineStr">
-        <is>
-          <t>New Yuan LoansJAN</t>
-        </is>
-      </c>
-      <c r="D2962" t="inlineStr"/>
-      <c r="E2962" t="inlineStr"/>
-      <c r="F2962" t="inlineStr"/>
-      <c r="G2962" t="inlineStr"/>
-      <c r="H2962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2963">
-      <c r="A2963" t="inlineStr"/>
-      <c r="B2963" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2963" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2963" t="inlineStr"/>
-      <c r="E2963" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2963" t="inlineStr"/>
-      <c r="G2963" t="inlineStr"/>
-      <c r="H2963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2964">
-      <c r="A2964" t="inlineStr"/>
-      <c r="B2964" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2964" t="inlineStr">
-        <is>
-          <t>Outstanding Loan Growth YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2964" t="inlineStr"/>
-      <c r="E2964" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="F2964" t="inlineStr"/>
-      <c r="G2964" t="inlineStr"/>
-      <c r="H2964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2965">
-      <c r="A2965" t="inlineStr"/>
-      <c r="B2965" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2965" t="inlineStr">
-        <is>
-          <t>Total Social FinancingJAN</t>
-        </is>
-      </c>
-      <c r="D2965" t="inlineStr"/>
-      <c r="E2965" t="inlineStr"/>
-      <c r="F2965" t="inlineStr"/>
-      <c r="G2965" t="inlineStr"/>
-      <c r="H2965" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2946"/>
+  <dimension ref="A1:H2921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85083,10 +85083,8 @@
       </c>
       <c r="F2651" t="inlineStr"/>
       <c r="G2651" t="inlineStr"/>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85117,10 +85115,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2653">
@@ -85147,10 +85143,8 @@
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
@@ -85177,10 +85171,8 @@
       </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2655">
@@ -85207,10 +85199,8 @@
       </c>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2656">
@@ -85241,10 +85231,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2657">
@@ -85271,10 +85259,8 @@
       </c>
       <c r="F2657" t="inlineStr"/>
       <c r="G2657" t="inlineStr"/>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2658">
@@ -85305,10 +85291,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -85339,10 +85323,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -85373,10 +85355,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -85403,10 +85383,8 @@
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2662">
@@ -85433,10 +85411,8 @@
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2663">
@@ -85463,10 +85439,8 @@
       </c>
       <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr"/>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2664">
@@ -85497,10 +85471,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -85535,10 +85507,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -85569,10 +85539,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2667">
@@ -85603,10 +85571,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2668">
@@ -85637,10 +85603,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -85671,10 +85635,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2670">
@@ -85705,10 +85667,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -85735,10 +85695,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -85765,10 +85723,8 @@
       </c>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2673">
@@ -85791,10 +85747,8 @@
       <c r="E2673" t="inlineStr"/>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2674">
@@ -85817,10 +85771,8 @@
       <c r="E2674" t="inlineStr"/>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2675">
@@ -85843,10 +85795,8 @@
       <c r="E2675" t="inlineStr"/>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2676">
@@ -85873,10 +85823,8 @@
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -85903,10 +85851,8 @@
       </c>
       <c r="F2677" t="inlineStr"/>
       <c r="G2677" t="inlineStr"/>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -85937,10 +85883,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -85959,10 +85903,8 @@
       <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -85981,10 +85923,8 @@
       <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -86011,10 +85951,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -86055,10 +85993,8 @@
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -86085,10 +86021,8 @@
       </c>
       <c r="F2684" t="inlineStr"/>
       <c r="G2684" t="inlineStr"/>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2685">
@@ -86115,10 +86049,8 @@
       </c>
       <c r="F2685" t="inlineStr"/>
       <c r="G2685" t="inlineStr"/>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2686">
@@ -86145,10 +86077,8 @@
       </c>
       <c r="F2686" t="inlineStr"/>
       <c r="G2686" t="inlineStr"/>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2687">
@@ -86179,10 +86109,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -86209,10 +86137,8 @@
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -86235,10 +86161,8 @@
       <c r="E2689" t="inlineStr"/>
       <c r="F2689" t="inlineStr"/>
       <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2690">
@@ -86269,10 +86193,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -86303,10 +86225,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2692">
@@ -86337,10 +86257,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2693">
@@ -86367,10 +86285,8 @@
       </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -86401,10 +86317,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86435,10 +86349,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2696">
@@ -86469,10 +86381,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2697">
@@ -86503,10 +86413,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -86537,10 +86445,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -86571,10 +86477,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -86597,10 +86501,8 @@
       <c r="E2700" t="inlineStr"/>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2701">
@@ -86623,10 +86525,8 @@
       <c r="E2701" t="inlineStr"/>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2702">
@@ -86653,10 +86553,8 @@
       </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2703">
@@ -86683,10 +86581,8 @@
       </c>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2704">
@@ -86717,10 +86613,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2705">
@@ -86751,10 +86645,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -86785,10 +86677,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2707">
@@ -86819,10 +86709,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -86853,10 +86741,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -86887,10 +86773,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -86921,10 +86805,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -86959,10 +86841,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2712">
@@ -86993,10 +86873,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -87027,10 +86905,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87061,10 +86937,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2715">
@@ -87095,10 +86969,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -87129,10 +87001,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2717">
@@ -87163,10 +87033,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -87197,10 +87065,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87227,10 +87093,8 @@
           <t>$-9.4B</t>
         </is>
       </c>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -87257,10 +87121,8 @@
           <t>$24.3B</t>
         </is>
       </c>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -87287,10 +87149,8 @@
           <t>$33.7B</t>
         </is>
       </c>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -87313,10 +87173,8 @@
       </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -87365,10 +87223,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -87403,10 +87259,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87437,10 +87291,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2727">
@@ -87471,10 +87323,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -87505,10 +87355,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -87539,10 +87387,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -87569,10 +87415,8 @@
       </c>
       <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2731">
@@ -87603,10 +87447,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2732">
@@ -87633,10 +87475,8 @@
       </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr"/>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2733">
@@ -87663,10 +87503,8 @@
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr"/>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -87693,10 +87531,8 @@
       </c>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr"/>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2735">
@@ -87723,10 +87559,8 @@
       </c>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2736">
@@ -87761,10 +87595,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2737">
@@ -87799,10 +87631,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -87837,10 +87667,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -87875,10 +87703,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2740">
@@ -87913,10 +87739,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2741">
@@ -87951,10 +87775,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2742">
@@ -87985,10 +87807,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2743">
@@ -88019,10 +87839,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -88053,10 +87871,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88091,10 +87907,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2746">
@@ -88129,10 +87943,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88163,10 +87975,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -88197,10 +88007,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -88227,10 +88035,8 @@
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88257,10 +88063,8 @@
       </c>
       <c r="F2750" t="inlineStr"/>
       <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -88287,10 +88091,8 @@
       </c>
       <c r="F2751" t="inlineStr"/>
       <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -88317,10 +88119,8 @@
       </c>
       <c r="F2752" t="inlineStr"/>
       <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -88351,10 +88151,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2754">
@@ -88385,10 +88183,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -88419,10 +88215,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2756">
@@ -88453,10 +88247,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -88483,10 +88275,8 @@
       </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2758">
@@ -88513,10 +88303,8 @@
       </c>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -88543,10 +88331,8 @@
       </c>
       <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr"/>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -88573,10 +88359,8 @@
       </c>
       <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr"/>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -88603,10 +88387,8 @@
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr"/>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -88637,10 +88419,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2763">
@@ -88671,10 +88451,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -88705,10 +88483,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2765">
@@ -88739,10 +88515,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2766">
@@ -88773,10 +88547,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -88807,10 +88579,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -88841,10 +88611,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2769">
@@ -88875,10 +88643,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2770">
@@ -88909,10 +88675,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -88935,10 +88699,8 @@
       <c r="E2771" t="inlineStr"/>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -88969,10 +88731,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -89003,10 +88763,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89041,10 +88799,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2775">
@@ -89079,10 +88835,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2776">
@@ -89113,10 +88867,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2777">
@@ -89147,10 +88899,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -89181,10 +88931,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89215,10 +88963,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89249,10 +88995,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -89279,10 +89023,8 @@
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr"/>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -89309,10 +89051,8 @@
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2783">
@@ -89339,10 +89079,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -89369,10 +89107,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -89399,10 +89135,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -89429,10 +89163,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89459,10 +89191,8 @@
       </c>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -89489,10 +89219,8 @@
       </c>
       <c r="F2788" t="inlineStr"/>
       <c r="G2788" t="inlineStr"/>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -89519,10 +89247,8 @@
       </c>
       <c r="F2789" t="inlineStr"/>
       <c r="G2789" t="inlineStr"/>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -89553,10 +89279,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2791">
@@ -89587,10 +89311,8 @@
           <t>6.8</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -89621,10 +89343,8 @@
           <t>RUB 26.0T</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -89655,10 +89375,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -89689,10 +89407,8 @@
           <t>7.0%</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -89723,10 +89439,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -89753,10 +89467,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -89783,10 +89495,8 @@
       </c>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -89809,10 +89519,8 @@
       <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2799">
@@ -89843,10 +89551,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2800">
@@ -89877,10 +89583,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -89911,10 +89615,8 @@
           <t>-16</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -89945,10 +89647,8 @@
           <t>$10.0B</t>
         </is>
       </c>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -89975,10 +89675,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90005,10 +89703,8 @@
       </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -90039,10 +89735,8 @@
           <t>A$5.2B</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2806">
@@ -90069,10 +89763,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -90099,10 +89791,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90129,10 +89819,8 @@
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90159,10 +89847,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90185,10 +89871,8 @@
       </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -90233,10 +89917,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2813">
@@ -90267,10 +89949,8 @@
           <t>43</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90297,10 +89977,8 @@
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -90331,10 +90009,8 @@
           <t>38</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -90361,10 +90037,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90395,10 +90069,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2818">
@@ -90429,10 +90101,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -90463,10 +90133,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -90489,10 +90157,8 @@
       <c r="E2820" t="inlineStr"/>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90519,10 +90185,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90553,10 +90217,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2823">
@@ -90591,10 +90253,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2824">
@@ -90617,10 +90277,8 @@
       <c r="E2824" t="inlineStr"/>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2825">
@@ -90647,10 +90305,8 @@
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2826">
@@ -90677,10 +90333,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -90707,10 +90361,8 @@
       </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -90733,10 +90385,8 @@
       <c r="E2828" t="inlineStr"/>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2829">
@@ -90767,10 +90417,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -90801,10 +90449,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2831">
@@ -90835,10 +90481,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2832">
@@ -90869,10 +90513,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -90903,10 +90545,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -90937,10 +90577,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -90971,10 +90609,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2836">
@@ -91001,10 +90637,8 @@
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -91031,10 +90665,8 @@
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -91061,10 +90693,8 @@
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -91091,10 +90721,8 @@
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -91121,10 +90749,8 @@
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -91151,10 +90777,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -91185,10 +90809,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2843">
@@ -91211,10 +90833,8 @@
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2844">
@@ -91241,10 +90861,8 @@
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2845">
@@ -91275,10 +90893,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2846">
@@ -91309,10 +90925,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2847">
@@ -91339,10 +90953,8 @@
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -91369,10 +90981,8 @@
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -91403,10 +91013,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2850">
@@ -91437,10 +91045,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -91467,10 +91073,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -91493,10 +91097,8 @@
       </c>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2853">
@@ -91519,10 +91121,8 @@
       </c>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -91545,10 +91145,8 @@
       </c>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -91571,10 +91169,8 @@
       </c>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -91597,10 +91193,8 @@
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -91623,52 +91217,70 @@
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2858" t="inlineStr"/>
-      <c r="C2858" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2858" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2858" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D2858" t="inlineStr"/>
-      <c r="E2858" t="inlineStr"/>
+      <c r="E2858" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
       <c r="F2858" t="inlineStr"/>
-      <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr"/>
+      <c r="G2858" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="H2858" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
@@ -91680,29 +91292,29 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr">
         <is>
-          <t>108.2</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2860" t="inlineStr">
@@ -91714,29 +91326,29 @@
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2861" t="inlineStr">
@@ -91748,93 +91360,97 @@
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2862" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
+      <c r="G2863" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="H2863" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2864" t="inlineStr">
@@ -91846,59 +91462,63 @@
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr"/>
+      <c r="G2865" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>8K</t>
         </is>
       </c>
       <c r="H2866" t="inlineStr">
@@ -91910,29 +91530,29 @@
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>65.0%</t>
         </is>
       </c>
       <c r="H2867" t="inlineStr">
@@ -91944,221 +91564,233 @@
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr"/>
+      <c r="E2868" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr"/>
+      <c r="G2868" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2871" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr"/>
+      <c r="G2872" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2872" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2873" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2874" t="inlineStr">
@@ -92170,29 +91802,29 @@
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2875" t="inlineStr">
@@ -92204,27 +91836,31 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr"/>
+      <c r="G2876" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2876" t="inlineStr">
         <is>
           <t>3</t>
@@ -92234,27 +91870,31 @@
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr"/>
+      <c r="G2877" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2877" t="inlineStr">
         <is>
           <t>3</t>
@@ -92264,23 +91904,23 @@
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
@@ -92298,23 +91938,31 @@
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
-      <c r="E2879" t="inlineStr"/>
+      <c r="E2879" t="inlineStr">
+        <is>
+          <t>$609.1B</t>
+        </is>
+      </c>
       <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr"/>
+      <c r="G2879" t="inlineStr">
+        <is>
+          <t>$607.0B</t>
+        </is>
+      </c>
       <c r="H2879" t="inlineStr">
         <is>
           <t>3</t>
@@ -92324,165 +91972,161 @@
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2880" t="inlineStr"/>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2883" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2884" t="inlineStr">
@@ -92494,29 +92138,29 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2885" t="inlineStr">
@@ -92528,29 +92172,29 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2886" t="inlineStr">
@@ -92562,29 +92206,33 @@
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2887" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2887" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
@@ -92596,199 +92244,183 @@
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2889" t="inlineStr"/>
       <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+      <c r="G2889" t="inlineStr"/>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2890" t="inlineStr"/>
       <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2890" t="inlineStr"/>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr">
         <is>
-          <t>8K</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
       <c r="G2892" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2892" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2893" t="inlineStr"/>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2893" t="inlineStr"/>
+          <t>$3.202T</t>
+        </is>
+      </c>
+      <c r="F2893" t="inlineStr">
+        <is>
+          <t>$3.2T</t>
+        </is>
+      </c>
       <c r="G2893" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2893" t="inlineStr">
@@ -92798,79 +92430,59 @@
       </c>
     </row>
     <row r="2894">
-      <c r="A2894" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2894" t="inlineStr"/>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2894" t="inlineStr"/>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2894" t="inlineStr"/>
       <c r="H2894" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2895">
-      <c r="A2895" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2895" t="inlineStr"/>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2896">
-      <c r="A2896" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2896" t="inlineStr"/>
       <c r="B2896" t="inlineStr">
         <is>
           <t>US</t>
@@ -92878,33 +92490,25 @@
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2896" t="inlineStr"/>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2897">
-      <c r="A2897" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2897" t="inlineStr"/>
       <c r="B2897" t="inlineStr">
         <is>
           <t>US</t>
@@ -92912,259 +92516,211 @@
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2897" t="inlineStr"/>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2898" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2898" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2898" t="inlineStr"/>
+      <c r="C2898" t="inlineStr"/>
       <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2898" t="inlineStr"/>
       <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2898" t="inlineStr"/>
+      <c r="H2898" t="inlineStr"/>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2900" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2902" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2902" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2902" t="inlineStr"/>
+      <c r="C2902" t="inlineStr"/>
       <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
+      <c r="E2902" t="inlineStr"/>
       <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2902" t="inlineStr"/>
+      <c r="H2902" t="inlineStr"/>
     </row>
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>¥3352.5B</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
       <c r="G2903" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>¥ 1840B</t>
         </is>
       </c>
       <c r="H2903" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Bank Lending YoYJAN</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>$609.1B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
+      <c r="G2904" t="inlineStr"/>
       <c r="H2904" t="inlineStr">
         <is>
           <t>3</t>
@@ -93174,27 +92730,27 @@
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
+      <c r="E2905" t="inlineStr"/>
       <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr"/>
+      <c r="G2905" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H2905" t="inlineStr">
         <is>
           <t>3</t>
@@ -93204,31 +92760,23 @@
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2024</t>
+          <t>Private House Approvals MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E2906" t="inlineStr"/>
       <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2906" t="inlineStr"/>
       <c r="H2906" t="inlineStr">
         <is>
           <t>3</t>
@@ -93236,101 +92784,69 @@
       </c>
     </row>
     <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2907" t="inlineStr"/>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Motorbike Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
       <c r="E2907" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>-5.5%</t>
         </is>
       </c>
       <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+      <c r="G2907" t="inlineStr"/>
       <c r="H2907" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
+          <t>Monday February 10 2025</t>
+        </is>
+      </c>
+      <c r="B2908" t="inlineStr"/>
+      <c r="C2908" t="inlineStr"/>
       <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="E2908" t="inlineStr"/>
       <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2908" t="inlineStr"/>
+      <c r="H2908" t="inlineStr"/>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>Eco Watchers Survey CurrentJAN</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
+      <c r="G2909" t="inlineStr"/>
       <c r="H2909" t="inlineStr">
         <is>
           <t>3</t>
@@ -93340,31 +92856,27 @@
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Eco Watchers Survey OutlookJAN</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="G2910" t="inlineStr"/>
       <c r="H2910" t="inlineStr">
         <is>
           <t>3</t>
@@ -93374,31 +92886,27 @@
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.625%</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2911" t="inlineStr"/>
       <c r="H2911" t="inlineStr">
         <is>
           <t>3</t>
@@ -93408,67 +92916,63 @@
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2912" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2912" t="inlineStr"/>
       <c r="G2912" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="H2912" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2913">
       <c r="A2913" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>$4.8B</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="F2913" t="inlineStr"/>
       <c r="G2913" t="inlineStr">
         <is>
-          <t>$4.1B</t>
+          <t>8.50%</t>
         </is>
       </c>
       <c r="H2913" t="inlineStr">
@@ -93480,23 +92984,31 @@
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr"/>
+      <c r="E2914" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
+      <c r="G2914" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H2914" t="inlineStr">
         <is>
           <t>3</t>
@@ -93506,23 +93018,31 @@
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr"/>
+      <c r="E2915" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
       <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr"/>
+      <c r="G2915" t="inlineStr">
+        <is>
+          <t>54.6%</t>
+        </is>
+      </c>
       <c r="H2915" t="inlineStr">
         <is>
           <t>3</t>
@@ -93530,14 +93050,10 @@
       </c>
     </row>
     <row r="2916">
-      <c r="A2916" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
+      <c r="A2916" t="inlineStr"/>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
@@ -93548,13 +93064,13 @@
       <c r="D2916" t="inlineStr"/>
       <c r="E2916" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F2916" t="inlineStr"/>
       <c r="G2916" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H2916" t="inlineStr">
@@ -93564,33 +93080,21 @@
       </c>
     </row>
     <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A2917" t="inlineStr"/>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>New Yuan LoansJAN</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
+      <c r="E2917" t="inlineStr"/>
       <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
+      <c r="G2917" t="inlineStr"/>
       <c r="H2917" t="inlineStr">
         <is>
           <t>3</t>
@@ -93606,21 +93110,17 @@
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>M2 Money Supply YoYJAN</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr"/>
       <c r="E2918" t="inlineStr">
         <is>
-          <t>$3.202T</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
+      <c r="G2918" t="inlineStr"/>
       <c r="H2918" t="inlineStr">
         <is>
           <t>3</t>
@@ -93631,16 +93131,20 @@
       <c r="A2919" t="inlineStr"/>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceJAN</t>
+          <t>Outstanding Loan Growth YoYJAN</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr"/>
+      <c r="E2919" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="F2919" t="inlineStr"/>
       <c r="G2919" t="inlineStr"/>
       <c r="H2919" t="inlineStr">
@@ -93653,26 +93157,18 @@
       <c r="A2920" t="inlineStr"/>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceDEC</t>
+          <t>Total Social FinancingJAN</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
+      <c r="E2920" t="inlineStr"/>
       <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
+      <c r="G2920" t="inlineStr"/>
       <c r="H2920" t="inlineStr">
         <is>
           <t>3</t>
@@ -93683,717 +93179,23 @@
       <c r="A2921" t="inlineStr"/>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>10.5%</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr"/>
       <c r="G2921" t="inlineStr"/>
       <c r="H2921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr"/>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr"/>
-      <c r="H2922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2923">
-      <c r="A2923" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2923" t="inlineStr"/>
-      <c r="C2923" t="inlineStr"/>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr"/>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr"/>
-      <c r="H2923" t="inlineStr"/>
-    </row>
-    <row r="2924">
-      <c r="A2924" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2924" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2925">
-      <c r="A2925" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2925" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2925" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2926">
-      <c r="A2926" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2926" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2926" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2926" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2927">
-      <c r="A2927" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2927" t="inlineStr"/>
-      <c r="C2927" t="inlineStr"/>
-      <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr"/>
-      <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr"/>
-      <c r="H2927" t="inlineStr"/>
-    </row>
-    <row r="2928">
-      <c r="A2928" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2928" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2928" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>¥3352.5B</t>
-        </is>
-      </c>
-      <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
-      <c r="H2928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2929" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2929" t="inlineStr">
-        <is>
-          <t>Bank Lending YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2929" t="inlineStr"/>
-      <c r="E2929" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr"/>
-      <c r="H2929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2930" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2930" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr"/>
-      <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2931" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2931" t="inlineStr">
-        <is>
-          <t>Private House Approvals MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr"/>
-      <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr"/>
-      <c r="H2931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2932">
-      <c r="A2932" t="inlineStr"/>
-      <c r="B2932" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2932" t="inlineStr">
-        <is>
-          <t>Motorbike Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2932" t="inlineStr"/>
-      <c r="E2932" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr"/>
-      <c r="H2932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2933">
-      <c r="A2933" t="inlineStr">
-        <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B2933" t="inlineStr"/>
-      <c r="C2933" t="inlineStr"/>
-      <c r="D2933" t="inlineStr"/>
-      <c r="E2933" t="inlineStr"/>
-      <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr"/>
-      <c r="H2933" t="inlineStr"/>
-    </row>
-    <row r="2934">
-      <c r="A2934" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2934" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2934" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey CurrentJAN</t>
-        </is>
-      </c>
-      <c r="D2934" t="inlineStr"/>
-      <c r="E2934" t="inlineStr">
-        <is>
-          <t>49.9</t>
-        </is>
-      </c>
-      <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr"/>
-      <c r="H2934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2935">
-      <c r="A2935" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2935" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2935" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookJAN</t>
-        </is>
-      </c>
-      <c r="D2935" t="inlineStr"/>
-      <c r="E2935" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr"/>
-      <c r="H2935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2936">
-      <c r="A2936" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2936" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2936" t="inlineStr">
-        <is>
-          <t>3-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2936" t="inlineStr"/>
-      <c r="E2936" t="inlineStr">
-        <is>
-          <t>2.625%</t>
-        </is>
-      </c>
-      <c r="F2936" t="inlineStr"/>
-      <c r="G2936" t="inlineStr"/>
-      <c r="H2936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2937">
-      <c r="A2937" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2937" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2937" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2937" t="inlineStr"/>
-      <c r="G2937" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="H2937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2938">
-      <c r="A2938" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2938" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2938" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2938" t="inlineStr"/>
-      <c r="E2938" t="inlineStr">
-        <is>
-          <t>8.6%</t>
-        </is>
-      </c>
-      <c r="F2938" t="inlineStr"/>
-      <c r="G2938" t="inlineStr">
-        <is>
-          <t>8.50%</t>
-        </is>
-      </c>
-      <c r="H2938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2939">
-      <c r="A2939" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2939" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2939" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2940">
-      <c r="A2940" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2940" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2940" t="inlineStr">
-        <is>
-          <t>Participation RateDEC</t>
-        </is>
-      </c>
-      <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr">
-        <is>
-          <t>54.2%</t>
-        </is>
-      </c>
-      <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr">
-        <is>
-          <t>54.6%</t>
-        </is>
-      </c>
-      <c r="H2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2941">
-      <c r="A2941" t="inlineStr"/>
-      <c r="B2941" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2941" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2942">
-      <c r="A2942" t="inlineStr"/>
-      <c r="B2942" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2942" t="inlineStr">
-        <is>
-          <t>New Yuan LoansJAN</t>
-        </is>
-      </c>
-      <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr"/>
-      <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr"/>
-      <c r="H2942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2943">
-      <c r="A2943" t="inlineStr"/>
-      <c r="B2943" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2943" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr"/>
-      <c r="H2943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2944">
-      <c r="A2944" t="inlineStr"/>
-      <c r="B2944" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2944" t="inlineStr">
-        <is>
-          <t>Outstanding Loan Growth YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2944" t="inlineStr"/>
-      <c r="E2944" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr"/>
-      <c r="H2944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2945">
-      <c r="A2945" t="inlineStr"/>
-      <c r="B2945" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2945" t="inlineStr">
-        <is>
-          <t>Total Social FinancingJAN</t>
-        </is>
-      </c>
-      <c r="D2945" t="inlineStr"/>
-      <c r="E2945" t="inlineStr"/>
-      <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr"/>
-      <c r="H2945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2946">
-      <c r="A2946" t="inlineStr"/>
-      <c r="B2946" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2946" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2946" t="inlineStr"/>
-      <c r="E2946" t="inlineStr">
-        <is>
-          <t>10.5%</t>
-        </is>
-      </c>
-      <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr"/>
-      <c r="H2946" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2961"/>
+  <dimension ref="A1:H2938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84557,10 +84557,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -84591,10 +84589,8 @@
           <t>126.8</t>
         </is>
       </c>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2636">
@@ -84625,10 +84621,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2637">
@@ -84659,10 +84653,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -84693,10 +84685,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -84727,10 +84717,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2640">
@@ -84761,10 +84749,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -84795,10 +84781,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -84829,10 +84813,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -84859,10 +84841,8 @@
       </c>
       <c r="F2643" t="inlineStr"/>
       <c r="G2643" t="inlineStr"/>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -84889,10 +84869,8 @@
       </c>
       <c r="F2644" t="inlineStr"/>
       <c r="G2644" t="inlineStr"/>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -84919,10 +84897,8 @@
       </c>
       <c r="F2645" t="inlineStr"/>
       <c r="G2645" t="inlineStr"/>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -84953,10 +84929,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2647">
@@ -84991,10 +84965,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2648">
@@ -85029,10 +85001,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2649">
@@ -85063,10 +85033,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2650">
@@ -85101,10 +85069,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2651">
@@ -85135,10 +85101,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2652">
@@ -85169,10 +85133,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85199,10 +85161,8 @@
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
@@ -85229,10 +85189,8 @@
       </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2655">
@@ -85255,10 +85213,8 @@
       <c r="E2655" t="inlineStr"/>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2656">
@@ -85281,10 +85237,8 @@
       <c r="E2656" t="inlineStr"/>
       <c r="F2656" t="inlineStr"/>
       <c r="G2656" t="inlineStr"/>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2657">
@@ -85307,10 +85261,8 @@
       <c r="E2657" t="inlineStr"/>
       <c r="F2657" t="inlineStr"/>
       <c r="G2657" t="inlineStr"/>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2658">
@@ -85333,10 +85285,8 @@
       <c r="E2658" t="inlineStr"/>
       <c r="F2658" t="inlineStr"/>
       <c r="G2658" t="inlineStr"/>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -85363,10 +85313,8 @@
       </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -85389,10 +85337,8 @@
       <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr"/>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2661">
@@ -85419,10 +85365,8 @@
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2662">
@@ -85453,10 +85397,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2663">
@@ -85483,10 +85425,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2664">
@@ -85505,10 +85445,8 @@
       <c r="E2664" t="inlineStr"/>
       <c r="F2664" t="inlineStr"/>
       <c r="G2664" t="inlineStr"/>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2665">
@@ -85535,10 +85473,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2666">
@@ -85565,10 +85501,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2667">
@@ -85587,10 +85521,8 @@
       <c r="E2667" t="inlineStr"/>
       <c r="F2667" t="inlineStr"/>
       <c r="G2667" t="inlineStr"/>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2668">
@@ -85617,10 +85549,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -85661,10 +85591,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -85691,10 +85619,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -85721,10 +85647,8 @@
       </c>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2673">
@@ -85755,10 +85679,8 @@
           <t>€-175.0B</t>
         </is>
       </c>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2674">
@@ -85789,10 +85711,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2675">
@@ -85823,10 +85743,8 @@
           <t>50.0K</t>
         </is>
       </c>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2676">
@@ -85853,10 +85771,8 @@
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -85883,10 +85799,8 @@
       </c>
       <c r="F2677" t="inlineStr"/>
       <c r="G2677" t="inlineStr"/>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -85913,10 +85827,8 @@
       </c>
       <c r="F2678" t="inlineStr"/>
       <c r="G2678" t="inlineStr"/>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -85939,10 +85851,8 @@
       <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2680">
@@ -85973,10 +85883,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -86007,10 +85915,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -86041,10 +85947,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2683">
@@ -86071,10 +85975,8 @@
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -86105,10 +86007,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2685">
@@ -86139,10 +86039,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2686">
@@ -86177,10 +86075,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2687">
@@ -86211,10 +86107,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -86245,10 +86139,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -86279,10 +86171,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -86305,10 +86195,8 @@
       <c r="E2690" t="inlineStr"/>
       <c r="F2690" t="inlineStr"/>
       <c r="G2690" t="inlineStr"/>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2691">
@@ -86335,10 +86223,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2692">
@@ -86361,10 +86247,8 @@
       <c r="E2692" t="inlineStr"/>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2693">
@@ -86391,10 +86275,8 @@
       </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -86421,10 +86303,8 @@
       </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2695">
@@ -86459,10 +86339,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2696">
@@ -86493,10 +86371,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -86531,10 +86407,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2698">
@@ -86569,10 +86443,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -86603,10 +86475,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -86637,10 +86507,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -86671,10 +86539,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -86709,10 +86575,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2703">
@@ -86743,10 +86607,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2704">
@@ -86777,10 +86639,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -86803,10 +86663,8 @@
       <c r="E2705" t="inlineStr"/>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2706">
@@ -86837,10 +86695,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2707">
@@ -86871,10 +86727,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -86909,10 +86763,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2709">
@@ -86943,10 +86795,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -86981,10 +86831,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -87011,10 +86859,8 @@
           <t>$-9.4B</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87041,10 +86887,8 @@
           <t>$24.3B</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -87071,10 +86915,8 @@
           <t>$33.7B</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87097,10 +86939,8 @@
       </c>
       <c r="F2714" t="inlineStr"/>
       <c r="G2714" t="inlineStr"/>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87149,10 +86989,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -87187,10 +87025,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -87221,10 +87057,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87255,10 +87089,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -87289,10 +87121,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -87323,10 +87153,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -87357,10 +87185,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -87395,10 +87221,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2724">
@@ -87433,10 +87257,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2725">
@@ -87467,10 +87289,8 @@
           <t>56.5</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87501,10 +87321,8 @@
           <t>50</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -87539,10 +87357,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2728">
@@ -87577,10 +87393,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2729">
@@ -87615,10 +87429,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -87653,10 +87465,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2731">
@@ -87691,10 +87501,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2732">
@@ -87729,10 +87537,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2733">
@@ -87767,10 +87573,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2734">
@@ -87801,10 +87605,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2735">
@@ -87835,10 +87637,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -87869,10 +87669,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -87907,10 +87705,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2738">
@@ -87945,10 +87741,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2739">
@@ -87979,10 +87773,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -88013,10 +87805,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -88043,10 +87833,8 @@
       </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -88073,10 +87861,8 @@
       </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -88103,10 +87889,8 @@
       </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -88133,10 +87917,8 @@
       </c>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88167,10 +87949,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2746">
@@ -88201,10 +87981,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88235,10 +88013,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -88269,10 +88045,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -88299,10 +88073,8 @@
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2750">
@@ -88329,10 +88101,8 @@
       </c>
       <c r="F2750" t="inlineStr"/>
       <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -88359,10 +88129,8 @@
       </c>
       <c r="F2751" t="inlineStr"/>
       <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -88389,10 +88157,8 @@
       </c>
       <c r="F2752" t="inlineStr"/>
       <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -88419,10 +88185,8 @@
       </c>
       <c r="F2753" t="inlineStr"/>
       <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -88445,10 +88209,8 @@
       <c r="E2754" t="inlineStr"/>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -88479,10 +88241,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2756">
@@ -88513,10 +88273,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -88551,10 +88309,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2758">
@@ -88585,10 +88341,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2759">
@@ -88619,10 +88373,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -88653,10 +88405,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -88691,10 +88441,8 @@
           <t>$ -93.0B</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2762">
@@ -88725,10 +88473,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2763">
@@ -88759,10 +88505,8 @@
           <t>$ 355.0B</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2764">
@@ -88785,10 +88529,8 @@
       <c r="E2764" t="inlineStr"/>
       <c r="F2764" t="inlineStr"/>
       <c r="G2764" t="inlineStr"/>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -88811,10 +88553,8 @@
       <c r="E2765" t="inlineStr"/>
       <c r="F2765" t="inlineStr"/>
       <c r="G2765" t="inlineStr"/>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -88837,10 +88577,8 @@
       <c r="E2766" t="inlineStr"/>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2767">
@@ -88871,10 +88609,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -88905,10 +88641,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -88943,10 +88677,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2770">
@@ -88981,10 +88713,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -89019,10 +88749,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2772">
@@ -89053,10 +88781,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -89087,10 +88813,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89121,10 +88845,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -89155,10 +88877,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89185,10 +88905,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2777">
@@ -89215,10 +88933,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2778">
@@ -89245,10 +88961,8 @@
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89275,10 +88989,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89305,10 +89017,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -89335,10 +89045,8 @@
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr"/>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -89365,10 +89073,8 @@
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -89395,10 +89101,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -89425,10 +89129,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -89459,10 +89161,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2786">
@@ -89493,10 +89193,8 @@
           <t>6.8</t>
         </is>
       </c>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89527,10 +89225,8 @@
           <t>RUB 26.0T</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -89561,10 +89257,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -89595,10 +89289,8 @@
           <t>7.0%</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -89629,10 +89321,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -89659,10 +89349,8 @@
       </c>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -89689,10 +89377,8 @@
       </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -89715,10 +89401,8 @@
       <c r="E2793" t="inlineStr"/>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2794">
@@ -89741,10 +89425,8 @@
       <c r="E2794" t="inlineStr"/>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2795">
@@ -89775,10 +89457,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2796">
@@ -89809,10 +89489,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -89843,10 +89521,8 @@
           <t>-16</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -89877,10 +89553,8 @@
           <t>$10.0B</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -89907,10 +89581,8 @@
       </c>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -89937,10 +89609,8 @@
       </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -89975,10 +89645,8 @@
           <t>A$6.2B</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2802">
@@ -90005,10 +89673,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -90035,10 +89701,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90061,10 +89725,8 @@
       <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2805">
@@ -90091,10 +89753,8 @@
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -90121,10 +89781,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -90147,10 +89805,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90199,10 +89855,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2810">
@@ -90233,10 +89887,8 @@
           <t>43</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -90267,10 +89919,8 @@
           <t>43</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -90301,10 +89951,8 @@
           <t>38</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2813">
@@ -90335,10 +89983,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90369,10 +90015,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2815">
@@ -90399,10 +90043,8 @@
       </c>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -90429,10 +90071,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90459,10 +90099,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -90489,10 +90127,8 @@
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -90527,10 +90163,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -90561,10 +90195,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2821">
@@ -90591,10 +90223,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90621,10 +90251,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -90651,10 +90279,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -90681,10 +90307,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90711,10 +90335,8 @@
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -90745,10 +90367,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -90783,10 +90403,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2828">
@@ -90809,10 +90427,8 @@
       <c r="E2828" t="inlineStr"/>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2829">
@@ -90835,10 +90451,8 @@
       <c r="E2829" t="inlineStr"/>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2830">
@@ -90869,10 +90483,8 @@
         </is>
       </c>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2831">
@@ -90903,10 +90515,8 @@
         </is>
       </c>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2832">
@@ -90937,10 +90547,8 @@
         </is>
       </c>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -90971,10 +90579,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -91009,10 +90615,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2835">
@@ -91047,10 +90651,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2836">
@@ -91085,10 +90687,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2837">
@@ -91119,10 +90719,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -91153,10 +90751,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -91179,10 +90775,8 @@
       <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2840">
@@ -91213,10 +90807,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2841">
@@ -91243,10 +90835,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -91269,10 +90859,8 @@
       <c r="E2842" t="inlineStr"/>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
@@ -91299,10 +90887,8 @@
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2844">
@@ -91329,10 +90915,8 @@
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2845">
@@ -91359,10 +90943,8 @@
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2846">
@@ -91385,10 +90967,8 @@
       <c r="E2846" t="inlineStr"/>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -91415,10 +90995,8 @@
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -91445,10 +91023,8 @@
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -91471,10 +91047,8 @@
       <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2850">
@@ -91505,10 +91079,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2851">
@@ -91531,10 +91103,8 @@
       <c r="E2851" t="inlineStr"/>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2852">
@@ -91561,10 +91131,8 @@
       </c>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2853">
@@ -91599,10 +91167,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2854">
@@ -91637,10 +91203,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2855">
@@ -91667,10 +91231,8 @@
       </c>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -91697,10 +91259,8 @@
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -91735,10 +91295,8 @@
           <t>6.25%</t>
         </is>
       </c>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2858">
@@ -91773,10 +91331,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2859">
@@ -91803,10 +91359,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2860">
@@ -91829,10 +91383,8 @@
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2861">
@@ -91855,10 +91407,8 @@
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2862">
@@ -91881,10 +91431,8 @@
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2863">
@@ -91907,10 +91455,8 @@
       </c>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2864">
@@ -91933,10 +91479,8 @@
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2865">
@@ -91959,52 +91503,70 @@
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2866" t="inlineStr"/>
-      <c r="C2866" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr"/>
+      <c r="E2866" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
       <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr"/>
+      <c r="G2866" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2866" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2867" t="inlineStr">
@@ -92016,63 +91578,55 @@
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>BoE Pill Speech</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
+      <c r="E2868" t="inlineStr"/>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr">
-        <is>
-          <t>108.2</t>
-        </is>
-      </c>
+      <c r="G2868" t="inlineStr"/>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
@@ -92084,97 +91638,105 @@
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr"/>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="F2871" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="G2871" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="H2871" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>48.5K</t>
         </is>
       </c>
       <c r="G2872" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>50K</t>
         </is>
       </c>
       <c r="H2872" t="inlineStr">
@@ -92186,59 +91748,63 @@
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr"/>
+      <c r="G2873" t="inlineStr">
+        <is>
+          <t>-10K</t>
+        </is>
+      </c>
       <c r="H2873" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>40K</t>
         </is>
       </c>
       <c r="H2874" t="inlineStr">
@@ -92250,29 +91816,29 @@
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>65.0%</t>
         </is>
       </c>
       <c r="H2875" t="inlineStr">
@@ -92284,221 +91850,253 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr"/>
+      <c r="E2876" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr"/>
+      <c r="G2876" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
-        </is>
-      </c>
-      <c r="F2877" t="inlineStr"/>
+          <t>256K</t>
+        </is>
+      </c>
+      <c r="F2877" t="inlineStr">
+        <is>
+          <t>170K</t>
+        </is>
+      </c>
       <c r="G2877" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2877" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
-        </is>
-      </c>
-      <c r="F2878" t="inlineStr"/>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="F2878" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="G2878" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>€50.101B</t>
-        </is>
-      </c>
-      <c r="F2879" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2879" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>€275.078B</t>
-        </is>
-      </c>
-      <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr"/>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="F2880" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="G2880" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2882" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F2882" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
@@ -92510,29 +92108,29 @@
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2883" t="inlineStr">
@@ -92544,23 +92142,31 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>ECB Guindos Speech</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr"/>
+      <c r="E2884" t="inlineStr">
+        <is>
+          <t>-13K</t>
+        </is>
+      </c>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
+      <c r="G2884" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2884" t="inlineStr">
         <is>
           <t>3</t>
@@ -92570,27 +92176,35 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
-        </is>
-      </c>
-      <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr"/>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="F2885" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="G2885" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2885" t="inlineStr">
         <is>
           <t>3</t>
@@ -92600,27 +92214,31 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr"/>
+      <c r="G2886" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2886" t="inlineStr">
         <is>
           <t>3</t>
@@ -92630,29 +92248,29 @@
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>$609.1B</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>$607.0B</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
@@ -92664,161 +92282,157 @@
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:25 AM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr">
-        <is>
-          <t>$629.56B</t>
-        </is>
-      </c>
+      <c r="E2888" t="inlineStr"/>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr"/>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2889" t="inlineStr"/>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>0.51%</t>
-        </is>
-      </c>
-      <c r="F2891" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="F2891" t="inlineStr">
+        <is>
+          <t>71.8</t>
+        </is>
+      </c>
       <c r="G2891" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
       <c r="G2892" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2892" t="inlineStr">
@@ -92830,55 +92444,63 @@
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>BoE Pill Speech</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr"/>
+      <c r="E2893" t="inlineStr">
+        <is>
+          <t>69.3</t>
+        </is>
+      </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr">
+        <is>
+          <t>69.5</t>
+        </is>
+      </c>
       <c r="H2893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
       <c r="G2894" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2894" t="inlineStr">
@@ -92890,29 +92512,29 @@
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
@@ -92924,73 +92546,61 @@
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="G2896" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
-      <c r="F2897" t="inlineStr">
-        <is>
-          <t>48.5K</t>
-        </is>
-      </c>
-      <c r="G2897" t="inlineStr">
-        <is>
-          <t>50K</t>
-        </is>
-      </c>
+      <c r="E2897" t="inlineStr"/>
+      <c r="F2897" t="inlineStr"/>
+      <c r="G2897" t="inlineStr"/>
       <c r="H2897" t="inlineStr">
         <is>
           <t>2</t>
@@ -93000,29 +92610,29 @@
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>57.5K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr">
         <is>
-          <t>-10K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2898" t="inlineStr">
@@ -93034,97 +92644,81 @@
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2899" t="inlineStr"/>
       <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr">
-        <is>
-          <t>40K</t>
-        </is>
-      </c>
+      <c r="G2899" t="inlineStr"/>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr">
-        <is>
-          <t>65.1%</t>
-        </is>
-      </c>
+      <c r="E2900" t="inlineStr"/>
       <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2900" t="inlineStr"/>
       <c r="H2900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
@@ -93136,7 +92730,7 @@
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
@@ -93146,151 +92740,119 @@
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="F2902" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
+          <t>$-7.49B</t>
+        </is>
+      </c>
+      <c r="F2902" t="inlineStr"/>
       <c r="G2902" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2902" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2903">
-      <c r="A2903" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2903" t="inlineStr"/>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.2T</t>
         </is>
       </c>
       <c r="G2903" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2903" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2904">
-      <c r="A2904" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2904" t="inlineStr"/>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E2904" t="inlineStr"/>
+      <c r="F2904" t="inlineStr"/>
       <c r="G2904" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2904" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2905">
-      <c r="A2905" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2905" t="inlineStr"/>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>118.1</t>
+        </is>
+      </c>
+      <c r="F2905" t="inlineStr"/>
       <c r="G2905" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H2905" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2906">
-      <c r="A2906" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2906" t="inlineStr"/>
       <c r="B2906" t="inlineStr">
         <is>
           <t>US</t>
@@ -93298,33 +92860,25 @@
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
       <c r="E2906" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="G2906" t="inlineStr"/>
       <c r="H2906" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2907" t="inlineStr"/>
       <c r="B2907" t="inlineStr">
         <is>
           <t>US</t>
@@ -93332,25 +92886,17 @@
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
       <c r="E2907" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2907" t="inlineStr"/>
+      <c r="G2907" t="inlineStr"/>
       <c r="H2907" t="inlineStr">
         <is>
           <t>3</t>
@@ -93360,197 +92906,161 @@
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>Government PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2908" t="inlineStr"/>
+      <c r="C2908" t="inlineStr"/>
       <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>33K</t>
-        </is>
-      </c>
+      <c r="E2908" t="inlineStr"/>
       <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr">
-        <is>
-          <t>25K</t>
-        </is>
-      </c>
-      <c r="H2908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2908" t="inlineStr"/>
+      <c r="H2908" t="inlineStr"/>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr"/>
       <c r="G2909" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2909" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2910" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F2910" t="inlineStr"/>
       <c r="G2910" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2910" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
       <c r="G2911" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2911" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2912" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2912" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2912" t="inlineStr"/>
+      <c r="C2912" t="inlineStr"/>
       <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
+      <c r="E2912" t="inlineStr"/>
       <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2912" t="inlineStr"/>
+      <c r="H2912" t="inlineStr"/>
     </row>
     <row r="2913">
       <c r="A2913" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr"/>
+      <c r="E2913" t="inlineStr">
+        <is>
+          <t>¥3352.5B</t>
+        </is>
+      </c>
       <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr"/>
+      <c r="G2913" t="inlineStr">
+        <is>
+          <t>¥ 1840B</t>
+        </is>
+      </c>
       <c r="H2913" t="inlineStr">
         <is>
           <t>2</t>
@@ -93560,27 +93070,31 @@
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceJAN</t>
+          <t>Bank Lending YoYJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
       <c r="E2914" t="inlineStr">
         <is>
-          <t>TRY-323.9B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
+      <c r="G2914" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2914" t="inlineStr">
         <is>
           <t>3</t>
@@ -93590,29 +93104,25 @@
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2024</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E2915" t="inlineStr"/>
       <c r="F2915" t="inlineStr"/>
       <c r="G2915" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2915" t="inlineStr">
@@ -93624,69 +93134,49 @@
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Private House Approvals MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2916" t="inlineStr">
-        <is>
-          <t>71.8</t>
-        </is>
-      </c>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+      <c r="E2916" t="inlineStr"/>
+      <c r="F2916" t="inlineStr"/>
+      <c r="G2916" t="inlineStr"/>
       <c r="H2916" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2917" t="inlineStr"/>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>Motorbike Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
       <c r="E2917" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-5.5%</t>
         </is>
       </c>
       <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2917" t="inlineStr"/>
       <c r="H2917" t="inlineStr">
         <is>
           <t>3</t>
@@ -93696,65 +93186,41 @@
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2918" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2918" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
+          <t>Monday February 10 2025</t>
+        </is>
+      </c>
+      <c r="B2918" t="inlineStr"/>
+      <c r="C2918" t="inlineStr"/>
       <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
+      <c r="E2918" t="inlineStr"/>
       <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2918" t="inlineStr"/>
+      <c r="H2918" t="inlineStr"/>
     </row>
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Eco Watchers Survey CurrentJAN</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
       <c r="E2919" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="G2919" t="inlineStr"/>
       <c r="H2919" t="inlineStr">
         <is>
           <t>3</t>
@@ -93764,31 +93230,27 @@
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>Eco Watchers Survey OutlookJAN</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2920" t="inlineStr"/>
       <c r="H2920" t="inlineStr">
         <is>
           <t>3</t>
@@ -93798,35 +93260,27 @@
     <row r="2921">
       <c r="A2921" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2921" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2921" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>2.625%</t>
+        </is>
+      </c>
+      <c r="F2921" t="inlineStr"/>
+      <c r="G2921" t="inlineStr"/>
       <c r="H2921" t="inlineStr">
         <is>
           <t>3</t>
@@ -93836,23 +93290,31 @@
     <row r="2922">
       <c r="A2922" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2922" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr"/>
+      <c r="E2922" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr"/>
+      <c r="G2922" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
       <c r="H2922" t="inlineStr">
         <is>
           <t>2</t>
@@ -93862,29 +93324,29 @@
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2923" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2923" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2923" t="inlineStr"/>
       <c r="E2923" t="inlineStr">
         <is>
-          <t>$4.8B</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="F2923" t="inlineStr"/>
       <c r="G2923" t="inlineStr">
         <is>
-          <t>$4.1B</t>
+          <t>8.50%</t>
         </is>
       </c>
       <c r="H2923" t="inlineStr">
@@ -93896,23 +93358,31 @@
     <row r="2924">
       <c r="A2924" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr"/>
+      <c r="E2924" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr"/>
+      <c r="G2924" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H2924" t="inlineStr">
         <is>
           <t>3</t>
@@ -93922,23 +93392,31 @@
     <row r="2925">
       <c r="A2925" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2925" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr"/>
+      <c r="E2925" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
       <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr"/>
+      <c r="G2925" t="inlineStr">
+        <is>
+          <t>54.6%</t>
+        </is>
+      </c>
       <c r="H2925" t="inlineStr">
         <is>
           <t>3</t>
@@ -93948,29 +93426,29 @@
     <row r="2926">
       <c r="A2926" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2926" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2926" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Auto Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2926" t="inlineStr"/>
       <c r="E2926" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>-5.8%</t>
         </is>
       </c>
       <c r="F2926" t="inlineStr"/>
       <c r="G2926" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="H2926" t="inlineStr">
@@ -93982,29 +93460,29 @@
     <row r="2927">
       <c r="A2927" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2927" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2927" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Auto Production YoYJAN</t>
         </is>
       </c>
       <c r="D2927" t="inlineStr"/>
       <c r="E2927" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F2927" t="inlineStr"/>
       <c r="G2927" t="inlineStr">
         <is>
-          <t>$ 18B</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H2927" t="inlineStr">
@@ -94014,33 +93492,25 @@
       </c>
     </row>
     <row r="2928">
-      <c r="A2928" t="inlineStr"/>
+      <c r="A2928" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2928" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2928" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2928" t="inlineStr">
-        <is>
-          <t>$3.2T</t>
-        </is>
-      </c>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
+      <c r="E2928" t="inlineStr"/>
+      <c r="F2928" t="inlineStr"/>
+      <c r="G2928" t="inlineStr"/>
       <c r="H2928" t="inlineStr">
         <is>
           <t>3</t>
@@ -94048,25 +93518,25 @@
       </c>
     </row>
     <row r="2929">
-      <c r="A2929" t="inlineStr"/>
+      <c r="A2929" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2929" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2929" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2929" t="inlineStr"/>
       <c r="E2929" t="inlineStr"/>
       <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
+      <c r="G2929" t="inlineStr"/>
       <c r="H2929" t="inlineStr">
         <is>
           <t>3</t>
@@ -94074,29 +93544,25 @@
       </c>
     </row>
     <row r="2930">
-      <c r="A2930" t="inlineStr"/>
+      <c r="A2930" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2930" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2930" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
+      <c r="E2930" t="inlineStr"/>
       <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+      <c r="G2930" t="inlineStr"/>
       <c r="H2930" t="inlineStr">
         <is>
           <t>3</t>
@@ -94104,33 +93570,37 @@
       </c>
     </row>
     <row r="2931">
-      <c r="A2931" t="inlineStr"/>
+      <c r="A2931" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2931" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2931" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>BoC Market Participants Survey</t>
         </is>
       </c>
       <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E2931" t="inlineStr"/>
       <c r="F2931" t="inlineStr"/>
       <c r="G2931" t="inlineStr"/>
       <c r="H2931" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2932">
-      <c r="A2932" t="inlineStr"/>
+      <c r="A2932" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B2932" t="inlineStr">
         <is>
           <t>US</t>
@@ -94138,13 +93608,13 @@
       </c>
       <c r="C2932" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D2932" t="inlineStr"/>
       <c r="E2932" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2932" t="inlineStr"/>
@@ -94156,25 +93626,37 @@
       </c>
     </row>
     <row r="2933">
-      <c r="A2933" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2933" t="inlineStr"/>
-      <c r="C2933" t="inlineStr"/>
+      <c r="A2933" t="inlineStr"/>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C2933" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYDEC</t>
+        </is>
+      </c>
       <c r="D2933" t="inlineStr"/>
-      <c r="E2933" t="inlineStr"/>
+      <c r="E2933" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr"/>
-      <c r="H2933" t="inlineStr"/>
+      <c r="G2933" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H2933" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2934">
-      <c r="A2934" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2934" t="inlineStr"/>
       <c r="B2934" t="inlineStr">
         <is>
           <t>CN</t>
@@ -94182,33 +93664,21 @@
       </c>
       <c r="C2934" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>New Yuan LoansJAN</t>
         </is>
       </c>
       <c r="D2934" t="inlineStr"/>
-      <c r="E2934" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2934" t="inlineStr"/>
       <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G2934" t="inlineStr"/>
       <c r="H2934" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2935">
-      <c r="A2935" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2935" t="inlineStr"/>
       <c r="B2935" t="inlineStr">
         <is>
           <t>CN</t>
@@ -94216,33 +93686,25 @@
       </c>
       <c r="C2935" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>M2 Money Supply YoYJAN</t>
         </is>
       </c>
       <c r="D2935" t="inlineStr"/>
       <c r="E2935" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2935" t="inlineStr"/>
       <c r="H2935" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2936">
-      <c r="A2936" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2936" t="inlineStr"/>
       <c r="B2936" t="inlineStr">
         <is>
           <t>CN</t>
@@ -94250,724 +93712,66 @@
       </c>
       <c r="C2936" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Outstanding Loan Growth YoYJAN</t>
         </is>
       </c>
       <c r="D2936" t="inlineStr"/>
       <c r="E2936" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="F2936" t="inlineStr"/>
-      <c r="G2936" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
+      <c r="G2936" t="inlineStr"/>
       <c r="H2936" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2937">
-      <c r="A2937" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2937" t="inlineStr"/>
-      <c r="C2937" t="inlineStr"/>
+      <c r="A2937" t="inlineStr"/>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2937" t="inlineStr">
+        <is>
+          <t>Total Social FinancingJAN</t>
+        </is>
+      </c>
       <c r="D2937" t="inlineStr"/>
       <c r="E2937" t="inlineStr"/>
       <c r="F2937" t="inlineStr"/>
       <c r="G2937" t="inlineStr"/>
-      <c r="H2937" t="inlineStr"/>
+      <c r="H2937" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2938">
-      <c r="A2938" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
+      <c r="A2938" t="inlineStr"/>
       <c r="B2938" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2938" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2938" t="inlineStr"/>
       <c r="E2938" t="inlineStr">
         <is>
-          <t>¥3352.5B</t>
+          <t>10.5%</t>
         </is>
       </c>
       <c r="F2938" t="inlineStr"/>
-      <c r="G2938" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
+      <c r="G2938" t="inlineStr"/>
       <c r="H2938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2939">
-      <c r="A2939" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2939" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2939" t="inlineStr">
-        <is>
-          <t>Bank Lending YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H2939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2940">
-      <c r="A2940" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2940" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2940" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr"/>
-      <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2941">
-      <c r="A2941" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2941" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2941" t="inlineStr">
-        <is>
-          <t>Private House Approvals MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr"/>
-      <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr"/>
-      <c r="H2941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2942">
-      <c r="A2942" t="inlineStr"/>
-      <c r="B2942" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2942" t="inlineStr">
-        <is>
-          <t>Motorbike Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr"/>
-      <c r="H2942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2943">
-      <c r="A2943" t="inlineStr">
-        <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B2943" t="inlineStr"/>
-      <c r="C2943" t="inlineStr"/>
-      <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr"/>
-      <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr"/>
-      <c r="H2943" t="inlineStr"/>
-    </row>
-    <row r="2944">
-      <c r="A2944" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2944" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2944" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey CurrentJAN</t>
-        </is>
-      </c>
-      <c r="D2944" t="inlineStr"/>
-      <c r="E2944" t="inlineStr">
-        <is>
-          <t>49.9</t>
-        </is>
-      </c>
-      <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr"/>
-      <c r="H2944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2945">
-      <c r="A2945" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2945" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2945" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookJAN</t>
-        </is>
-      </c>
-      <c r="D2945" t="inlineStr"/>
-      <c r="E2945" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr"/>
-      <c r="H2945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2946">
-      <c r="A2946" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2946" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2946" t="inlineStr">
-        <is>
-          <t>3-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2946" t="inlineStr"/>
-      <c r="E2946" t="inlineStr">
-        <is>
-          <t>2.625%</t>
-        </is>
-      </c>
-      <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr"/>
-      <c r="H2946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2947">
-      <c r="A2947" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2947" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2947" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2947" t="inlineStr"/>
-      <c r="E2947" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2947" t="inlineStr"/>
-      <c r="G2947" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="H2947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2948">
-      <c r="A2948" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2948" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2948" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2948" t="inlineStr"/>
-      <c r="E2948" t="inlineStr">
-        <is>
-          <t>8.6%</t>
-        </is>
-      </c>
-      <c r="F2948" t="inlineStr"/>
-      <c r="G2948" t="inlineStr">
-        <is>
-          <t>8.50%</t>
-        </is>
-      </c>
-      <c r="H2948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2949">
-      <c r="A2949" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2949" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2949" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2949" t="inlineStr"/>
-      <c r="E2949" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F2949" t="inlineStr"/>
-      <c r="G2949" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2950">
-      <c r="A2950" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2950" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2950" t="inlineStr">
-        <is>
-          <t>Participation RateDEC</t>
-        </is>
-      </c>
-      <c r="D2950" t="inlineStr"/>
-      <c r="E2950" t="inlineStr">
-        <is>
-          <t>54.2%</t>
-        </is>
-      </c>
-      <c r="F2950" t="inlineStr"/>
-      <c r="G2950" t="inlineStr">
-        <is>
-          <t>54.6%</t>
-        </is>
-      </c>
-      <c r="H2950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2951">
-      <c r="A2951" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2951" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2951" t="inlineStr">
-        <is>
-          <t>Auto Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2951" t="inlineStr"/>
-      <c r="E2951" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
-      <c r="F2951" t="inlineStr"/>
-      <c r="G2951" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="H2951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2952">
-      <c r="A2952" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2952" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2952" t="inlineStr">
-        <is>
-          <t>Auto Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2952" t="inlineStr"/>
-      <c r="E2952" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F2952" t="inlineStr"/>
-      <c r="G2952" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H2952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2953">
-      <c r="A2953" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2953" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2953" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2953" t="inlineStr"/>
-      <c r="E2953" t="inlineStr"/>
-      <c r="F2953" t="inlineStr"/>
-      <c r="G2953" t="inlineStr"/>
-      <c r="H2953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2954">
-      <c r="A2954" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2954" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2954" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2954" t="inlineStr"/>
-      <c r="E2954" t="inlineStr"/>
-      <c r="F2954" t="inlineStr"/>
-      <c r="G2954" t="inlineStr"/>
-      <c r="H2954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2955">
-      <c r="A2955" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2955" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2955" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2955" t="inlineStr"/>
-      <c r="E2955" t="inlineStr"/>
-      <c r="F2955" t="inlineStr"/>
-      <c r="G2955" t="inlineStr"/>
-      <c r="H2955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2956">
-      <c r="A2956" t="inlineStr"/>
-      <c r="B2956" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2956" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2956" t="inlineStr"/>
-      <c r="E2956" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F2956" t="inlineStr"/>
-      <c r="G2956" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2957">
-      <c r="A2957" t="inlineStr"/>
-      <c r="B2957" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2957" t="inlineStr">
-        <is>
-          <t>New Yuan LoansJAN</t>
-        </is>
-      </c>
-      <c r="D2957" t="inlineStr"/>
-      <c r="E2957" t="inlineStr"/>
-      <c r="F2957" t="inlineStr"/>
-      <c r="G2957" t="inlineStr"/>
-      <c r="H2957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2958">
-      <c r="A2958" t="inlineStr"/>
-      <c r="B2958" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2958" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2958" t="inlineStr"/>
-      <c r="E2958" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2958" t="inlineStr"/>
-      <c r="G2958" t="inlineStr"/>
-      <c r="H2958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2959">
-      <c r="A2959" t="inlineStr"/>
-      <c r="B2959" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2959" t="inlineStr">
-        <is>
-          <t>Outstanding Loan Growth YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2959" t="inlineStr"/>
-      <c r="E2959" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="F2959" t="inlineStr"/>
-      <c r="G2959" t="inlineStr"/>
-      <c r="H2959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2960">
-      <c r="A2960" t="inlineStr"/>
-      <c r="B2960" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2960" t="inlineStr">
-        <is>
-          <t>Total Social FinancingJAN</t>
-        </is>
-      </c>
-      <c r="D2960" t="inlineStr"/>
-      <c r="E2960" t="inlineStr"/>
-      <c r="F2960" t="inlineStr"/>
-      <c r="G2960" t="inlineStr"/>
-      <c r="H2960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2961">
-      <c r="A2961" t="inlineStr"/>
-      <c r="B2961" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2961" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2961" t="inlineStr"/>
-      <c r="E2961" t="inlineStr">
-        <is>
-          <t>10.5%</t>
-        </is>
-      </c>
-      <c r="F2961" t="inlineStr"/>
-      <c r="G2961" t="inlineStr"/>
-      <c r="H2961" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2941"/>
+  <dimension ref="A1:H2916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89837,10 +89837,8 @@
         </is>
       </c>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2809">
@@ -89871,10 +89869,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -89909,10 +89905,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2811">
@@ -89947,10 +89941,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2812">
@@ -89985,10 +89977,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2813">
@@ -90019,10 +90009,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90053,10 +90041,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -90079,10 +90065,8 @@
       <c r="E2815" t="inlineStr"/>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -90113,10 +90097,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2817">
@@ -90143,10 +90125,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -90169,10 +90149,8 @@
       <c r="E2818" t="inlineStr"/>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -90199,10 +90177,8 @@
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -90229,10 +90205,8 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90259,10 +90233,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90285,10 +90257,8 @@
       <c r="E2822" t="inlineStr"/>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -90315,10 +90285,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -90345,10 +90313,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90371,10 +90337,8 @@
       <c r="E2825" t="inlineStr"/>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2826">
@@ -90405,10 +90369,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -90431,10 +90393,8 @@
       <c r="E2827" t="inlineStr"/>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -90461,10 +90421,8 @@
       </c>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -90499,10 +90457,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2830">
@@ -90537,10 +90493,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2831">
@@ -90567,10 +90521,8 @@
       </c>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -90597,10 +90549,8 @@
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -90635,10 +90585,8 @@
           <t>6.25%</t>
         </is>
       </c>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2834">
@@ -90673,10 +90621,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -90703,10 +90649,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2836">
@@ -90729,10 +90673,8 @@
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -90755,10 +90697,8 @@
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -90781,10 +90721,8 @@
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -90807,10 +90745,8 @@
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -90833,10 +90769,8 @@
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -90859,52 +90793,70 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2842" t="inlineStr"/>
-      <c r="C2842" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2842" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2842" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2842" t="inlineStr"/>
-      <c r="E2842" t="inlineStr"/>
+      <c r="E2842" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
       <c r="F2842" t="inlineStr"/>
-      <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr"/>
+      <c r="G2842" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2842" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
       <c r="E2843" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2843" t="inlineStr">
@@ -90916,67 +90868,55 @@
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>BoE Pill Speech</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
-      <c r="F2844" t="inlineStr">
-        <is>
-          <t>108.1</t>
-        </is>
-      </c>
-      <c r="G2844" t="inlineStr">
-        <is>
-          <t>108.2</t>
-        </is>
-      </c>
+      <c r="E2844" t="inlineStr"/>
+      <c r="F2844" t="inlineStr"/>
+      <c r="G2844" t="inlineStr"/>
       <c r="H2844" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2845" t="inlineStr">
@@ -90988,97 +90928,105 @@
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
       <c r="E2846" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2846" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F2847" t="inlineStr"/>
-      <c r="G2847" t="inlineStr"/>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="F2847" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="G2847" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="H2847" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>48.5K</t>
         </is>
       </c>
       <c r="G2848" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>50K</t>
         </is>
       </c>
       <c r="H2848" t="inlineStr">
@@ -91090,59 +91038,63 @@
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
       <c r="E2849" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr"/>
+      <c r="G2849" t="inlineStr">
+        <is>
+          <t>-10K</t>
+        </is>
+      </c>
       <c r="H2849" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>40K</t>
         </is>
       </c>
       <c r="H2850" t="inlineStr">
@@ -91154,29 +91106,29 @@
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>65.0%</t>
         </is>
       </c>
       <c r="H2851" t="inlineStr">
@@ -91188,221 +91140,253 @@
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
-      <c r="E2852" t="inlineStr"/>
+      <c r="E2852" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2852" t="inlineStr"/>
-      <c r="G2852" t="inlineStr"/>
+      <c r="G2852" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2852" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
       <c r="E2853" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
-        </is>
-      </c>
-      <c r="F2853" t="inlineStr"/>
+          <t>256K</t>
+        </is>
+      </c>
+      <c r="F2853" t="inlineStr">
+        <is>
+          <t>170K</t>
+        </is>
+      </c>
       <c r="G2853" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2853" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
       <c r="E2854" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
-        </is>
-      </c>
-      <c r="F2854" t="inlineStr"/>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="F2854" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="G2854" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2854" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>€50.101B</t>
-        </is>
-      </c>
-      <c r="F2855" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2855" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G2855" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2855" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>€275.078B</t>
-        </is>
-      </c>
-      <c r="F2856" t="inlineStr"/>
-      <c r="G2856" t="inlineStr"/>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="F2856" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="G2856" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2856" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2858" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F2858" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G2858" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2858" t="inlineStr">
@@ -91414,29 +91398,29 @@
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
@@ -91448,23 +91432,31 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>ECB Guindos Speech</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
-      <c r="E2860" t="inlineStr"/>
+      <c r="E2860" t="inlineStr">
+        <is>
+          <t>-13K</t>
+        </is>
+      </c>
       <c r="F2860" t="inlineStr"/>
-      <c r="G2860" t="inlineStr"/>
+      <c r="G2860" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2860" t="inlineStr">
         <is>
           <t>3</t>
@@ -91474,27 +91466,35 @@
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
-        </is>
-      </c>
-      <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr"/>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="F2861" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="G2861" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2861" t="inlineStr">
         <is>
           <t>3</t>
@@ -91504,27 +91504,31 @@
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr"/>
+      <c r="G2862" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2862" t="inlineStr">
         <is>
           <t>3</t>
@@ -91534,29 +91538,29 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>$609.1B</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>$607.0B</t>
         </is>
       </c>
       <c r="H2863" t="inlineStr">
@@ -91568,161 +91572,157 @@
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:25 AM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr">
-        <is>
-          <t>$629.56B</t>
-        </is>
-      </c>
+      <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2865" t="inlineStr"/>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>0.51%</t>
-        </is>
-      </c>
-      <c r="F2867" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="F2867" t="inlineStr">
+        <is>
+          <t>71.8</t>
+        </is>
+      </c>
       <c r="G2867" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2868" t="inlineStr">
@@ -91734,55 +91734,63 @@
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>BoE Pill Speech</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
-      <c r="E2869" t="inlineStr"/>
+      <c r="E2869" t="inlineStr">
+        <is>
+          <t>69.3</t>
+        </is>
+      </c>
       <c r="F2869" t="inlineStr"/>
-      <c r="G2869" t="inlineStr"/>
+      <c r="G2869" t="inlineStr">
+        <is>
+          <t>69.5</t>
+        </is>
+      </c>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
@@ -91794,29 +91802,29 @@
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2871" t="inlineStr">
@@ -91828,73 +91836,61 @@
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="G2872" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2872" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
-      <c r="F2873" t="inlineStr">
-        <is>
-          <t>48.5K</t>
-        </is>
-      </c>
-      <c r="G2873" t="inlineStr">
-        <is>
-          <t>50K</t>
-        </is>
-      </c>
+      <c r="E2873" t="inlineStr"/>
+      <c r="F2873" t="inlineStr"/>
+      <c r="G2873" t="inlineStr"/>
       <c r="H2873" t="inlineStr">
         <is>
           <t>2</t>
@@ -91904,29 +91900,29 @@
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>57.5K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr">
         <is>
-          <t>-10K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2874" t="inlineStr">
@@ -91938,97 +91934,81 @@
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2875" t="inlineStr"/>
       <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr">
-        <is>
-          <t>40K</t>
-        </is>
-      </c>
+      <c r="G2875" t="inlineStr"/>
       <c r="H2875" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr">
-        <is>
-          <t>65.1%</t>
-        </is>
-      </c>
+      <c r="E2876" t="inlineStr"/>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2876" t="inlineStr"/>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2877" t="inlineStr">
@@ -92040,7 +92020,7 @@
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
@@ -92050,151 +92030,119 @@
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="F2878" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
+          <t>$-7.49B</t>
+        </is>
+      </c>
+      <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2879">
-      <c r="A2879" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2879" t="inlineStr"/>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.2T</t>
         </is>
       </c>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2880">
-      <c r="A2880" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2880" t="inlineStr"/>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
-      <c r="E2880" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2880" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E2880" t="inlineStr"/>
+      <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2881">
-      <c r="A2881" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2881" t="inlineStr"/>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F2881" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>118.1</t>
+        </is>
+      </c>
+      <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2882">
-      <c r="A2882" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2882" t="inlineStr"/>
       <c r="B2882" t="inlineStr">
         <is>
           <t>US</t>
@@ -92202,33 +92150,25 @@
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="G2882" t="inlineStr"/>
       <c r="H2882" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2883">
-      <c r="A2883" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2883" t="inlineStr"/>
       <c r="B2883" t="inlineStr">
         <is>
           <t>US</t>
@@ -92236,25 +92176,17 @@
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F2883" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G2883" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2883" t="inlineStr"/>
+      <c r="G2883" t="inlineStr"/>
       <c r="H2883" t="inlineStr">
         <is>
           <t>3</t>
@@ -92264,197 +92196,161 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2884" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2884" t="inlineStr">
-        <is>
-          <t>Government PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2884" t="inlineStr"/>
+      <c r="C2884" t="inlineStr"/>
       <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr">
-        <is>
-          <t>33K</t>
-        </is>
-      </c>
+      <c r="E2884" t="inlineStr"/>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr">
-        <is>
-          <t>25K</t>
-        </is>
-      </c>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2884" t="inlineStr"/>
+      <c r="H2884" t="inlineStr"/>
     </row>
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2886" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2886" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2888" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2888" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2888" t="inlineStr"/>
+      <c r="C2888" t="inlineStr"/>
       <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
+      <c r="E2888" t="inlineStr"/>
       <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2888" t="inlineStr"/>
+      <c r="H2888" t="inlineStr"/>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr"/>
+      <c r="E2889" t="inlineStr">
+        <is>
+          <t>¥3352.5B</t>
+        </is>
+      </c>
       <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr"/>
+      <c r="G2889" t="inlineStr">
+        <is>
+          <t>¥ 1840B</t>
+        </is>
+      </c>
       <c r="H2889" t="inlineStr">
         <is>
           <t>2</t>
@@ -92464,27 +92360,31 @@
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceJAN</t>
+          <t>Bank Lending YoYJAN</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>TRY-323.9B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr"/>
+      <c r="G2890" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2890" t="inlineStr">
         <is>
           <t>3</t>
@@ -92494,29 +92394,25 @@
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2024</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E2891" t="inlineStr"/>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2891" t="inlineStr">
@@ -92528,69 +92424,49 @@
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Private House Approvals MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2892" t="inlineStr">
-        <is>
-          <t>71.8</t>
-        </is>
-      </c>
-      <c r="G2892" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+      <c r="E2892" t="inlineStr"/>
+      <c r="F2892" t="inlineStr"/>
+      <c r="G2892" t="inlineStr"/>
       <c r="H2892" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2893" t="inlineStr"/>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>Motorbike Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-5.5%</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2893" t="inlineStr"/>
       <c r="H2893" t="inlineStr">
         <is>
           <t>3</t>
@@ -92600,65 +92476,41 @@
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2894" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2894" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
+          <t>Monday February 10 2025</t>
+        </is>
+      </c>
+      <c r="B2894" t="inlineStr"/>
+      <c r="C2894" t="inlineStr"/>
       <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
+      <c r="E2894" t="inlineStr"/>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2894" t="inlineStr"/>
+      <c r="H2894" t="inlineStr"/>
     </row>
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Eco Watchers Survey CurrentJAN</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="G2895" t="inlineStr"/>
       <c r="H2895" t="inlineStr">
         <is>
           <t>3</t>
@@ -92668,31 +92520,27 @@
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>Eco Watchers Survey OutlookJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2896" t="inlineStr"/>
       <c r="H2896" t="inlineStr">
         <is>
           <t>3</t>
@@ -92702,35 +92550,27 @@
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2897" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2897" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>2.625%</t>
+        </is>
+      </c>
+      <c r="F2897" t="inlineStr"/>
+      <c r="G2897" t="inlineStr"/>
       <c r="H2897" t="inlineStr">
         <is>
           <t>3</t>
@@ -92740,23 +92580,31 @@
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr"/>
+      <c r="E2898" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr"/>
+      <c r="G2898" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
       <c r="H2898" t="inlineStr">
         <is>
           <t>2</t>
@@ -92766,29 +92614,29 @@
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>$4.8B</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>$4.1B</t>
+          <t>8.50%</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
@@ -92800,23 +92648,31 @@
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr"/>
+      <c r="E2900" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr"/>
+      <c r="G2900" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H2900" t="inlineStr">
         <is>
           <t>3</t>
@@ -92826,23 +92682,31 @@
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr"/>
+      <c r="E2901" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
       <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr"/>
+      <c r="G2901" t="inlineStr">
+        <is>
+          <t>54.6%</t>
+        </is>
+      </c>
       <c r="H2901" t="inlineStr">
         <is>
           <t>3</t>
@@ -92852,29 +92716,29 @@
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Auto Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>-5.8%</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
       <c r="G2902" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="H2902" t="inlineStr">
@@ -92886,29 +92750,29 @@
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Auto Production YoYJAN</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
       <c r="G2903" t="inlineStr">
         <is>
-          <t>$ 18B</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H2903" t="inlineStr">
@@ -92918,33 +92782,25 @@
       </c>
     </row>
     <row r="2904">
-      <c r="A2904" t="inlineStr"/>
+      <c r="A2904" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr">
-        <is>
-          <t>$3.2T</t>
-        </is>
-      </c>
-      <c r="G2904" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
+      <c r="E2904" t="inlineStr"/>
+      <c r="F2904" t="inlineStr"/>
+      <c r="G2904" t="inlineStr"/>
       <c r="H2904" t="inlineStr">
         <is>
           <t>3</t>
@@ -92952,25 +92808,25 @@
       </c>
     </row>
     <row r="2905">
-      <c r="A2905" t="inlineStr"/>
+      <c r="A2905" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr"/>
       <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
+      <c r="G2905" t="inlineStr"/>
       <c r="H2905" t="inlineStr">
         <is>
           <t>3</t>
@@ -92978,29 +92834,25 @@
       </c>
     </row>
     <row r="2906">
-      <c r="A2906" t="inlineStr"/>
+      <c r="A2906" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
+      <c r="E2906" t="inlineStr"/>
       <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+      <c r="G2906" t="inlineStr"/>
       <c r="H2906" t="inlineStr">
         <is>
           <t>3</t>
@@ -93008,33 +92860,37 @@
       </c>
     </row>
     <row r="2907">
-      <c r="A2907" t="inlineStr"/>
+      <c r="A2907" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>BoC Market Participants Survey</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E2907" t="inlineStr"/>
       <c r="F2907" t="inlineStr"/>
       <c r="G2907" t="inlineStr"/>
       <c r="H2907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2908">
-      <c r="A2908" t="inlineStr"/>
+      <c r="A2908" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B2908" t="inlineStr">
         <is>
           <t>US</t>
@@ -93042,13 +92898,13 @@
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
       <c r="E2908" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2908" t="inlineStr"/>
@@ -93062,91 +92918,87 @@
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2909" t="inlineStr"/>
-      <c r="C2909" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2909" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr"/>
       <c r="F2909" t="inlineStr"/>
       <c r="G2909" t="inlineStr"/>
-      <c r="H2909" t="inlineStr"/>
+      <c r="H2909" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2910" t="inlineStr"/>
       <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G2910" t="inlineStr"/>
       <c r="H2910" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2911" t="inlineStr"/>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
       <c r="G2911" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H2911" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2912">
-      <c r="A2912" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2912" t="inlineStr"/>
       <c r="B2912" t="inlineStr">
         <is>
           <t>CN</t>
@@ -93154,103 +93006,87 @@
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>New Yuan LoansJAN</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+      <c r="E2912" t="inlineStr"/>
       <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
+      <c r="G2912" t="inlineStr"/>
       <c r="H2912" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2913" t="inlineStr"/>
-      <c r="C2913" t="inlineStr"/>
+      <c r="A2913" t="inlineStr"/>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2913" t="inlineStr">
+        <is>
+          <t>M2 Money Supply YoYJAN</t>
+        </is>
+      </c>
       <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr"/>
+      <c r="E2913" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
       <c r="F2913" t="inlineStr"/>
       <c r="G2913" t="inlineStr"/>
-      <c r="H2913" t="inlineStr"/>
+      <c r="H2913" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2914">
-      <c r="A2914" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
+      <c r="A2914" t="inlineStr"/>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Outstanding Loan Growth YoYJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
       <c r="E2914" t="inlineStr">
         <is>
-          <t>¥3352.5B</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
+      <c r="G2914" t="inlineStr"/>
       <c r="H2914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2915">
-      <c r="A2915" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
+      <c r="A2915" t="inlineStr"/>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Bank Lending YoYJAN</t>
+          <t>Total Social FinancingJAN</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="E2915" t="inlineStr"/>
       <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G2915" t="inlineStr"/>
       <c r="H2915" t="inlineStr">
         <is>
           <t>3</t>
@@ -93258,728 +93094,26 @@
       </c>
     </row>
     <row r="2916">
-      <c r="A2916" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2916" t="inlineStr"/>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr"/>
+      <c r="E2916" t="inlineStr">
+        <is>
+          <t>10.5%</t>
+        </is>
+      </c>
       <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2916" t="inlineStr"/>
       <c r="H2916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2917" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2917" t="inlineStr">
-        <is>
-          <t>Private House Approvals MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr"/>
-      <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr"/>
-      <c r="H2917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2918">
-      <c r="A2918" t="inlineStr"/>
-      <c r="B2918" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2918" t="inlineStr">
-        <is>
-          <t>Motorbike Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr"/>
-      <c r="H2918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2919">
-      <c r="A2919" t="inlineStr">
-        <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B2919" t="inlineStr"/>
-      <c r="C2919" t="inlineStr"/>
-      <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr"/>
-      <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr"/>
-      <c r="H2919" t="inlineStr"/>
-    </row>
-    <row r="2920">
-      <c r="A2920" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2920" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2920" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey CurrentJAN</t>
-        </is>
-      </c>
-      <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr">
-        <is>
-          <t>49.9</t>
-        </is>
-      </c>
-      <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr"/>
-      <c r="H2920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2921">
-      <c r="A2921" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2921" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2921" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookJAN</t>
-        </is>
-      </c>
-      <c r="D2921" t="inlineStr"/>
-      <c r="E2921" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr"/>
-      <c r="H2921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>3-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr">
-        <is>
-          <t>2.625%</t>
-        </is>
-      </c>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr"/>
-      <c r="H2922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2923">
-      <c r="A2923" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2923" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2923" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="H2923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2924">
-      <c r="A2924" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>8.6%</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>8.50%</t>
-        </is>
-      </c>
-      <c r="H2924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2925">
-      <c r="A2925" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2925" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2925" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2926">
-      <c r="A2926" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2926" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2926" t="inlineStr">
-        <is>
-          <t>Participation RateDEC</t>
-        </is>
-      </c>
-      <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>54.2%</t>
-        </is>
-      </c>
-      <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>54.6%</t>
-        </is>
-      </c>
-      <c r="H2926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2927">
-      <c r="A2927" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2927" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2927" t="inlineStr">
-        <is>
-          <t>Auto Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
-      <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="H2927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2928">
-      <c r="A2928" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2928" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2928" t="inlineStr">
-        <is>
-          <t>Auto Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H2928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2929" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2929" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2929" t="inlineStr"/>
-      <c r="E2929" t="inlineStr"/>
-      <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr"/>
-      <c r="H2929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2930" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2930" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr"/>
-      <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr"/>
-      <c r="H2930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2931" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2931" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr"/>
-      <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr"/>
-      <c r="H2931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2932">
-      <c r="A2932" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2932" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2932" t="inlineStr">
-        <is>
-          <t>BoC Market Participants Survey</t>
-        </is>
-      </c>
-      <c r="D2932" t="inlineStr"/>
-      <c r="E2932" t="inlineStr"/>
-      <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr"/>
-      <c r="H2932" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2933">
-      <c r="A2933" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2933" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2933" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
-        </is>
-      </c>
-      <c r="D2933" t="inlineStr"/>
-      <c r="E2933" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr"/>
-      <c r="H2933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2934">
-      <c r="A2934" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2934" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2934" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2934" t="inlineStr"/>
-      <c r="E2934" t="inlineStr"/>
-      <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr"/>
-      <c r="H2934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2935">
-      <c r="A2935" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2935" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2935" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2935" t="inlineStr"/>
-      <c r="E2935" t="inlineStr"/>
-      <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr"/>
-      <c r="H2935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2936">
-      <c r="A2936" t="inlineStr"/>
-      <c r="B2936" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2936" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2936" t="inlineStr"/>
-      <c r="E2936" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F2936" t="inlineStr"/>
-      <c r="G2936" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2937">
-      <c r="A2937" t="inlineStr"/>
-      <c r="B2937" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2937" t="inlineStr">
-        <is>
-          <t>New Yuan LoansJAN</t>
-        </is>
-      </c>
-      <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr"/>
-      <c r="F2937" t="inlineStr"/>
-      <c r="G2937" t="inlineStr"/>
-      <c r="H2937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2938">
-      <c r="A2938" t="inlineStr"/>
-      <c r="B2938" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2938" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2938" t="inlineStr"/>
-      <c r="E2938" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2938" t="inlineStr"/>
-      <c r="G2938" t="inlineStr"/>
-      <c r="H2938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2939">
-      <c r="A2939" t="inlineStr"/>
-      <c r="B2939" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2939" t="inlineStr">
-        <is>
-          <t>Outstanding Loan Growth YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr"/>
-      <c r="H2939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2940">
-      <c r="A2940" t="inlineStr"/>
-      <c r="B2940" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2940" t="inlineStr">
-        <is>
-          <t>Total Social FinancingJAN</t>
-        </is>
-      </c>
-      <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr"/>
-      <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr"/>
-      <c r="H2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2941">
-      <c r="A2941" t="inlineStr"/>
-      <c r="B2941" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2941" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr">
-        <is>
-          <t>10.5%</t>
-        </is>
-      </c>
-      <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr"/>
-      <c r="H2941" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2943"/>
+  <dimension ref="A1:H2922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85573,10 +85573,8 @@
       <c r="E2669" t="inlineStr"/>
       <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr"/>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2670">
@@ -85603,10 +85601,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -85633,10 +85629,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2672">
@@ -85671,10 +85665,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2673">
@@ -85705,10 +85697,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2674">
@@ -85743,10 +85733,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2675">
@@ -85781,10 +85769,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2676">
@@ -85819,10 +85805,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -85853,10 +85837,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -85887,10 +85869,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -85925,10 +85905,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2680">
@@ -85959,10 +85937,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -85993,10 +85969,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -86019,10 +85993,8 @@
       <c r="E2682" t="inlineStr"/>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2683">
@@ -86057,10 +86029,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2684">
@@ -86091,10 +86061,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2685">
@@ -86129,10 +86097,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2686">
@@ -86163,10 +86129,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2687">
@@ -86201,10 +86165,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -86231,10 +86193,8 @@
           <t>$-9.4B</t>
         </is>
       </c>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -86261,10 +86221,8 @@
           <t>$24.3B</t>
         </is>
       </c>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -86291,10 +86249,8 @@
           <t>$33.7B</t>
         </is>
       </c>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -86317,10 +86273,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2692">
@@ -86369,10 +86323,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -86407,10 +86359,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86441,10 +86391,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2696">
@@ -86475,10 +86423,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -86509,10 +86455,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -86543,10 +86487,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -86577,10 +86519,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -86615,10 +86555,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2701">
@@ -86653,10 +86591,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2702">
@@ -86687,10 +86623,8 @@
           <t>56.5</t>
         </is>
       </c>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2703">
@@ -86721,10 +86655,8 @@
           <t>50</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2704">
@@ -86759,10 +86691,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2705">
@@ -86797,10 +86727,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2706">
@@ -86835,10 +86763,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -86873,10 +86799,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2708">
@@ -86911,10 +86835,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2709">
@@ -86949,10 +86871,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2710">
@@ -86987,10 +86907,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2711">
@@ -87021,10 +86939,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2712">
@@ -87055,10 +86971,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -87089,10 +87003,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87127,10 +87039,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2715">
@@ -87165,10 +87075,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -87199,10 +87107,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -87233,10 +87139,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -87263,10 +87167,8 @@
       </c>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87293,10 +87195,8 @@
       </c>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -87323,10 +87223,8 @@
       </c>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -87353,10 +87251,8 @@
       </c>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -87387,10 +87283,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2723">
@@ -87421,10 +87315,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -87455,10 +87347,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -87489,10 +87379,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87519,10 +87407,8 @@
       </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -87549,10 +87435,8 @@
       </c>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr"/>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -87579,10 +87463,8 @@
       </c>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -87609,10 +87491,8 @@
       </c>
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -87639,10 +87519,8 @@
       </c>
       <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2731">
@@ -87665,10 +87543,8 @@
       <c r="E2731" t="inlineStr"/>
       <c r="F2731" t="inlineStr"/>
       <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -87699,10 +87575,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2733">
@@ -87733,10 +87607,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -87771,10 +87643,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2735">
@@ -87805,10 +87675,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2736">
@@ -87839,10 +87707,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -87873,10 +87739,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -87911,10 +87775,8 @@
           <t>$ -93.0B</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -87945,10 +87807,8 @@
           <t>$ 262B</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2740">
@@ -87979,10 +87839,8 @@
           <t>$ 355.0B</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2741">
@@ -88005,10 +87863,8 @@
       <c r="E2741" t="inlineStr"/>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -88031,10 +87887,8 @@
       <c r="E2742" t="inlineStr"/>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -88057,10 +87911,8 @@
       <c r="E2743" t="inlineStr"/>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2744">
@@ -88091,10 +87943,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88125,10 +87975,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -88163,10 +88011,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2747">
@@ -88201,10 +88047,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2748">
@@ -88239,10 +88083,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2749">
@@ -88273,10 +88115,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88307,10 +88147,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -88341,10 +88179,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -88375,10 +88211,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -88405,10 +88239,8 @@
       </c>
       <c r="F2753" t="inlineStr"/>
       <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2754">
@@ -88435,10 +88267,8 @@
       </c>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2755">
@@ -88465,10 +88295,8 @@
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2756">
@@ -88495,10 +88323,8 @@
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -88525,10 +88351,8 @@
       </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2758">
@@ -88555,10 +88379,8 @@
       </c>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -88585,10 +88407,8 @@
       </c>
       <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr"/>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -88615,10 +88435,8 @@
       </c>
       <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr"/>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -88645,10 +88463,8 @@
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr"/>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -88679,10 +88495,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2763">
@@ -88713,10 +88527,8 @@
           <t>6.8</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -88747,10 +88559,8 @@
           <t>RUB 26.0T</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -88781,10 +88591,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -88815,10 +88623,8 @@
           <t>7.0%</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -88849,10 +88655,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -88879,10 +88683,8 @@
       </c>
       <c r="F2768" t="inlineStr"/>
       <c r="G2768" t="inlineStr"/>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -88909,10 +88711,8 @@
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -88935,10 +88735,8 @@
       <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -88961,10 +88759,8 @@
       <c r="E2771" t="inlineStr"/>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2772">
@@ -88995,10 +88791,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2773">
@@ -89029,10 +88823,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89063,10 +88855,8 @@
           <t>-16</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -89097,10 +88887,8 @@
           <t>$10.0B</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89127,10 +88915,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -89157,10 +88943,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -89195,10 +88979,8 @@
           <t>A$6.2B</t>
         </is>
       </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2779">
@@ -89225,10 +89007,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89255,10 +89035,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -89281,10 +89059,8 @@
       <c r="E2781" t="inlineStr"/>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr"/>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -89311,10 +89087,8 @@
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -89341,10 +89115,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -89367,10 +89139,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -89397,10 +89167,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -89449,10 +89217,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2788">
@@ -89483,10 +89249,8 @@
           <t>43</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -89517,10 +89281,8 @@
           <t>43</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -89551,10 +89313,8 @@
           <t>38</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2791">
@@ -89585,10 +89345,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -89623,10 +89381,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2793">
@@ -89653,10 +89409,8 @@
       </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -89683,10 +89437,8 @@
       </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -89713,10 +89465,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -89743,10 +89493,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -89781,10 +89529,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2798">
@@ -89815,10 +89561,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2799">
@@ -89845,10 +89589,8 @@
       </c>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -89875,10 +89617,8 @@
       </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -89905,10 +89645,8 @@
       </c>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -89935,10 +89673,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -89965,10 +89701,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -89999,10 +89733,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2805">
@@ -90037,10 +89769,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2806">
@@ -90063,10 +89793,8 @@
       <c r="E2806" t="inlineStr"/>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2807">
@@ -90089,10 +89817,8 @@
       <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2808">
@@ -90123,10 +89849,8 @@
         </is>
       </c>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2809">
@@ -90157,10 +89881,8 @@
         </is>
       </c>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2810">
@@ -90191,10 +89913,8 @@
         </is>
       </c>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2811">
@@ -90225,10 +89945,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -90263,10 +89981,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2813">
@@ -90301,10 +90017,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2814">
@@ -90339,10 +90053,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2815">
@@ -90373,10 +90085,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -90407,10 +90117,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90433,10 +90141,8 @@
       <c r="E2817" t="inlineStr"/>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2818">
@@ -90467,10 +90173,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2819">
@@ -90497,10 +90201,8 @@
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -90523,10 +90225,8 @@
       <c r="E2820" t="inlineStr"/>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90553,10 +90253,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90583,10 +90281,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -90613,10 +90309,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -90639,10 +90333,8 @@
       <c r="E2824" t="inlineStr"/>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90669,10 +90361,8 @@
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -90699,10 +90389,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -90725,10 +90413,8 @@
       <c r="E2827" t="inlineStr"/>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -90759,10 +90445,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2829">
@@ -90785,10 +90469,8 @@
       <c r="E2829" t="inlineStr"/>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2830">
@@ -90815,10 +90497,8 @@
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -90853,10 +90533,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2832">
@@ -90891,10 +90569,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -90921,10 +90597,8 @@
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -90951,10 +90625,8 @@
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -90989,10 +90661,8 @@
           <t>6.25%</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2836">
@@ -91027,10 +90697,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -91057,10 +90725,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -91083,10 +90749,8 @@
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -91109,10 +90773,8 @@
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -91135,10 +90797,8 @@
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -91161,10 +90821,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -91187,10 +90845,8 @@
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
@@ -91213,52 +90869,70 @@
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2844" t="inlineStr"/>
-      <c r="C2844" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2844" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2844" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr"/>
+      <c r="E2844" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
       <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr"/>
+      <c r="G2844" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2844" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2845" t="inlineStr">
@@ -91270,67 +90944,55 @@
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>BoE Pill Speech</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
-      <c r="F2846" t="inlineStr">
-        <is>
-          <t>108.1</t>
-        </is>
-      </c>
-      <c r="G2846" t="inlineStr">
-        <is>
-          <t>108.2</t>
-        </is>
-      </c>
+      <c r="E2846" t="inlineStr"/>
+      <c r="F2846" t="inlineStr"/>
+      <c r="G2846" t="inlineStr"/>
       <c r="H2846" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2847" t="inlineStr">
@@ -91342,97 +91004,105 @@
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2848" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
       <c r="E2849" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr"/>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="F2849" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="G2849" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="H2849" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>48.5K</t>
         </is>
       </c>
       <c r="G2850" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>50K</t>
         </is>
       </c>
       <c r="H2850" t="inlineStr">
@@ -91444,59 +91114,63 @@
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
-      <c r="G2851" t="inlineStr"/>
+      <c r="G2851" t="inlineStr">
+        <is>
+          <t>-10K</t>
+        </is>
+      </c>
       <c r="H2851" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
       <c r="E2852" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>40K</t>
         </is>
       </c>
       <c r="H2852" t="inlineStr">
@@ -91508,29 +91182,29 @@
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
       <c r="E2853" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>65.0%</t>
         </is>
       </c>
       <c r="H2853" t="inlineStr">
@@ -91542,221 +91216,253 @@
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
-      <c r="E2854" t="inlineStr"/>
+      <c r="E2854" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr"/>
+      <c r="G2854" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2854" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
-        </is>
-      </c>
-      <c r="F2855" t="inlineStr"/>
+          <t>256K</t>
+        </is>
+      </c>
+      <c r="F2855" t="inlineStr">
+        <is>
+          <t>170K</t>
+        </is>
+      </c>
       <c r="G2855" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
-        </is>
-      </c>
-      <c r="F2856" t="inlineStr"/>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="F2856" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="G2856" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2856" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>€50.101B</t>
-        </is>
-      </c>
-      <c r="F2857" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2857" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>€275.078B</t>
-        </is>
-      </c>
-      <c r="F2858" t="inlineStr"/>
-      <c r="G2858" t="inlineStr"/>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="F2858" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="G2858" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2860" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F2860" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G2860" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2860" t="inlineStr">
@@ -91768,29 +91474,29 @@
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2861" t="inlineStr">
@@ -91802,23 +91508,31 @@
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>ECB Guindos Speech</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
-      <c r="E2862" t="inlineStr"/>
+      <c r="E2862" t="inlineStr">
+        <is>
+          <t>-13K</t>
+        </is>
+      </c>
       <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr"/>
+      <c r="G2862" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2862" t="inlineStr">
         <is>
           <t>3</t>
@@ -91828,27 +91542,35 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
-        </is>
-      </c>
-      <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="F2863" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="G2863" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2863" t="inlineStr">
         <is>
           <t>3</t>
@@ -91858,27 +91580,31 @@
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr"/>
+      <c r="G2864" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2864" t="inlineStr">
         <is>
           <t>3</t>
@@ -91888,29 +91614,29 @@
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>$609.1B</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>$607.0B</t>
         </is>
       </c>
       <c r="H2865" t="inlineStr">
@@ -91922,161 +91648,157 @@
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:25 AM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr">
-        <is>
-          <t>$629.56B</t>
-        </is>
-      </c>
+      <c r="E2866" t="inlineStr"/>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr"/>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2867" t="inlineStr"/>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>0.51%</t>
-        </is>
-      </c>
-      <c r="F2869" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="F2869" t="inlineStr">
+        <is>
+          <t>71.8</t>
+        </is>
+      </c>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
@@ -92088,55 +91810,63 @@
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>BoE Pill Speech</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
-      <c r="E2871" t="inlineStr"/>
+      <c r="E2871" t="inlineStr">
+        <is>
+          <t>69.3</t>
+        </is>
+      </c>
       <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr"/>
+      <c r="G2871" t="inlineStr">
+        <is>
+          <t>69.5</t>
+        </is>
+      </c>
       <c r="H2871" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2872" t="inlineStr">
@@ -92148,29 +91878,29 @@
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2873" t="inlineStr">
@@ -92182,73 +91912,61 @@
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="G2874" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2874" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
-      <c r="F2875" t="inlineStr">
-        <is>
-          <t>48.5K</t>
-        </is>
-      </c>
-      <c r="G2875" t="inlineStr">
-        <is>
-          <t>50K</t>
-        </is>
-      </c>
+      <c r="E2875" t="inlineStr"/>
+      <c r="F2875" t="inlineStr"/>
+      <c r="G2875" t="inlineStr"/>
       <c r="H2875" t="inlineStr">
         <is>
           <t>2</t>
@@ -92258,29 +91976,29 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>57.5K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr">
         <is>
-          <t>-10K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2876" t="inlineStr">
@@ -92292,97 +92010,81 @@
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2877" t="inlineStr"/>
       <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr">
-        <is>
-          <t>40K</t>
-        </is>
-      </c>
+      <c r="G2877" t="inlineStr"/>
       <c r="H2877" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr">
-        <is>
-          <t>65.1%</t>
-        </is>
-      </c>
+      <c r="E2878" t="inlineStr"/>
       <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2878" t="inlineStr"/>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
@@ -92394,7 +92096,7 @@
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
@@ -92404,151 +92106,119 @@
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="F2880" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
+          <t>$-7.49B</t>
+        </is>
+      </c>
+      <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2881">
-      <c r="A2881" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2881" t="inlineStr"/>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.2T</t>
         </is>
       </c>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2882">
-      <c r="A2882" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2882" t="inlineStr"/>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
-      <c r="E2882" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2882" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E2882" t="inlineStr"/>
+      <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2883">
-      <c r="A2883" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2883" t="inlineStr"/>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F2883" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>118.1</t>
+        </is>
+      </c>
+      <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H2883" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2884">
-      <c r="A2884" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2884" t="inlineStr"/>
       <c r="B2884" t="inlineStr">
         <is>
           <t>US</t>
@@ -92556,33 +92226,25 @@
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="G2884" t="inlineStr"/>
       <c r="H2884" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2885">
-      <c r="A2885" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2885" t="inlineStr"/>
       <c r="B2885" t="inlineStr">
         <is>
           <t>US</t>
@@ -92590,25 +92252,17 @@
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F2885" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G2885" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2885" t="inlineStr"/>
+      <c r="G2885" t="inlineStr"/>
       <c r="H2885" t="inlineStr">
         <is>
           <t>3</t>
@@ -92618,197 +92272,161 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2886" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2886" t="inlineStr">
-        <is>
-          <t>Government PayrollsJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2886" t="inlineStr"/>
+      <c r="C2886" t="inlineStr"/>
       <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr">
-        <is>
-          <t>33K</t>
-        </is>
-      </c>
+      <c r="E2886" t="inlineStr"/>
       <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr">
-        <is>
-          <t>25K</t>
-        </is>
-      </c>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2886" t="inlineStr"/>
+      <c r="H2886" t="inlineStr"/>
     </row>
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2888" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2890" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2890" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2890" t="inlineStr"/>
+      <c r="C2890" t="inlineStr"/>
       <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
+      <c r="E2890" t="inlineStr"/>
       <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2890" t="inlineStr"/>
+      <c r="H2890" t="inlineStr"/>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr"/>
+      <c r="E2891" t="inlineStr">
+        <is>
+          <t>¥3352.5B</t>
+        </is>
+      </c>
       <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr"/>
+      <c r="G2891" t="inlineStr">
+        <is>
+          <t>¥ 1840B</t>
+        </is>
+      </c>
       <c r="H2891" t="inlineStr">
         <is>
           <t>2</t>
@@ -92818,27 +92436,31 @@
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceJAN</t>
+          <t>Bank Lending YoYJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>TRY-323.9B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
+      <c r="G2892" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2892" t="inlineStr">
         <is>
           <t>3</t>
@@ -92848,29 +92470,25 @@
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2024</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E2893" t="inlineStr"/>
       <c r="F2893" t="inlineStr"/>
       <c r="G2893" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2893" t="inlineStr">
@@ -92882,69 +92500,49 @@
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Private House Approvals MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2894" t="inlineStr">
-        <is>
-          <t>71.8</t>
-        </is>
-      </c>
-      <c r="G2894" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+      <c r="E2894" t="inlineStr"/>
+      <c r="F2894" t="inlineStr"/>
+      <c r="G2894" t="inlineStr"/>
       <c r="H2894" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2895">
-      <c r="A2895" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2895" t="inlineStr"/>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>Motorbike Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-5.5%</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2895" t="inlineStr"/>
       <c r="H2895" t="inlineStr">
         <is>
           <t>3</t>
@@ -92954,65 +92552,41 @@
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2896" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2896" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
+          <t>Monday February 10 2025</t>
+        </is>
+      </c>
+      <c r="B2896" t="inlineStr"/>
+      <c r="C2896" t="inlineStr"/>
       <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
+      <c r="E2896" t="inlineStr"/>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2896" t="inlineStr"/>
+      <c r="H2896" t="inlineStr"/>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Eco Watchers Survey CurrentJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="G2897" t="inlineStr"/>
       <c r="H2897" t="inlineStr">
         <is>
           <t>3</t>
@@ -93022,31 +92596,27 @@
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>Eco Watchers Survey OutlookJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2898" t="inlineStr"/>
       <c r="H2898" t="inlineStr">
         <is>
           <t>3</t>
@@ -93056,35 +92626,27 @@
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2899" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2899" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>2.625%</t>
+        </is>
+      </c>
+      <c r="F2899" t="inlineStr"/>
+      <c r="G2899" t="inlineStr"/>
       <c r="H2899" t="inlineStr">
         <is>
           <t>3</t>
@@ -93094,23 +92656,31 @@
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr"/>
+      <c r="E2900" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr"/>
+      <c r="G2900" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
       <c r="H2900" t="inlineStr">
         <is>
           <t>2</t>
@@ -93120,29 +92690,29 @@
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>$4.8B</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>$4.1B</t>
+          <t>8.50%</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
@@ -93154,23 +92724,31 @@
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr"/>
+      <c r="E2902" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
+      <c r="G2902" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H2902" t="inlineStr">
         <is>
           <t>3</t>
@@ -93180,23 +92758,31 @@
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr"/>
+      <c r="E2903" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
       <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr"/>
+      <c r="G2903" t="inlineStr">
+        <is>
+          <t>54.6%</t>
+        </is>
+      </c>
       <c r="H2903" t="inlineStr">
         <is>
           <t>3</t>
@@ -93206,29 +92792,29 @@
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Auto Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>-5.8%</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr"/>
       <c r="G2904" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="H2904" t="inlineStr">
@@ -93240,29 +92826,29 @@
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Auto Production YoYJAN</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F2905" t="inlineStr"/>
       <c r="G2905" t="inlineStr">
         <is>
-          <t>$ 18B</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H2905" t="inlineStr">
@@ -93272,33 +92858,25 @@
       </c>
     </row>
     <row r="2906">
-      <c r="A2906" t="inlineStr"/>
+      <c r="A2906" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2906" t="inlineStr">
-        <is>
-          <t>$3.2T</t>
-        </is>
-      </c>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
+      <c r="E2906" t="inlineStr"/>
+      <c r="F2906" t="inlineStr"/>
+      <c r="G2906" t="inlineStr"/>
       <c r="H2906" t="inlineStr">
         <is>
           <t>3</t>
@@ -93306,25 +92884,25 @@
       </c>
     </row>
     <row r="2907">
-      <c r="A2907" t="inlineStr"/>
+      <c r="A2907" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
       <c r="E2907" t="inlineStr"/>
       <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
+      <c r="G2907" t="inlineStr"/>
       <c r="H2907" t="inlineStr">
         <is>
           <t>3</t>
@@ -93332,29 +92910,25 @@
       </c>
     </row>
     <row r="2908">
-      <c r="A2908" t="inlineStr"/>
+      <c r="A2908" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
+      <c r="E2908" t="inlineStr"/>
       <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+      <c r="G2908" t="inlineStr"/>
       <c r="H2908" t="inlineStr">
         <is>
           <t>3</t>
@@ -93362,33 +92936,37 @@
       </c>
     </row>
     <row r="2909">
-      <c r="A2909" t="inlineStr"/>
+      <c r="A2909" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>BoC Market Participants Survey</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E2909" t="inlineStr"/>
       <c r="F2909" t="inlineStr"/>
       <c r="G2909" t="inlineStr"/>
       <c r="H2909" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2910">
-      <c r="A2910" t="inlineStr"/>
+      <c r="A2910" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B2910" t="inlineStr">
         <is>
           <t>US</t>
@@ -93396,13 +92974,13 @@
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2910" t="inlineStr"/>
@@ -93416,254 +92994,238 @@
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2911" t="inlineStr"/>
-      <c r="C2911" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2911" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr"/>
       <c r="F2911" t="inlineStr"/>
       <c r="G2911" t="inlineStr"/>
-      <c r="H2911" t="inlineStr"/>
+      <c r="H2911" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2912" t="inlineStr"/>
       <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G2912" t="inlineStr"/>
       <c r="H2912" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2913">
       <c r="A2913" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Westpac Consumer Confidence ChangeFEB</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="E2913" t="inlineStr"/>
       <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2913" t="inlineStr"/>
       <c r="H2913" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Westpac Consumer Confidence IndexFEB</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+      <c r="E2914" t="inlineStr"/>
       <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
+      <c r="G2914" t="inlineStr"/>
       <c r="H2914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2915" t="inlineStr"/>
-      <c r="C2915" t="inlineStr"/>
+          <t>07:01 PM</t>
+        </is>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2915" t="inlineStr">
+        <is>
+          <t>BRC Retail Sales Monitor YoYJAN</t>
+        </is>
+      </c>
       <c r="D2915" t="inlineStr"/>
       <c r="E2915" t="inlineStr"/>
       <c r="F2915" t="inlineStr"/>
       <c r="G2915" t="inlineStr"/>
-      <c r="H2915" t="inlineStr"/>
+      <c r="H2915" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>NAB Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
       <c r="E2916" t="inlineStr">
         <is>
-          <t>¥3352.5B</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
+      <c r="G2916" t="inlineStr"/>
       <c r="H2916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
+      <c r="A2917" t="inlineStr"/>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Bank Lending YoYJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
       <c r="E2917" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F2917" t="inlineStr"/>
       <c r="G2917" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H2917" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2918">
-      <c r="A2918" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2918" t="inlineStr"/>
       <c r="B2918" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>New Yuan LoansJAN</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr"/>
       <c r="E2918" t="inlineStr"/>
       <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2918" t="inlineStr"/>
       <c r="H2918" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2919">
-      <c r="A2919" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2919" t="inlineStr"/>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalDEC</t>
+          <t>M2 Money Supply YoYJAN</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr"/>
+      <c r="E2919" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
       <c r="F2919" t="inlineStr"/>
       <c r="G2919" t="inlineStr"/>
       <c r="H2919" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -93671,671 +93233,73 @@
       <c r="A2920" t="inlineStr"/>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Motorbike Sales YoYJAN</t>
+          <t>Outstanding Loan Growth YoYJAN</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>-5.5%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr"/>
       <c r="G2920" t="inlineStr"/>
       <c r="H2920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2921">
-      <c r="A2921" t="inlineStr">
-        <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B2921" t="inlineStr"/>
-      <c r="C2921" t="inlineStr"/>
+      <c r="A2921" t="inlineStr"/>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2921" t="inlineStr">
+        <is>
+          <t>Total Social FinancingJAN</t>
+        </is>
+      </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr"/>
       <c r="F2921" t="inlineStr"/>
       <c r="G2921" t="inlineStr"/>
-      <c r="H2921" t="inlineStr"/>
+      <c r="H2921" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
+      <c r="A2922" t="inlineStr"/>
       <c r="B2922" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentJAN</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2922" t="inlineStr"/>
       <c r="E2922" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.5%</t>
         </is>
       </c>
       <c r="F2922" t="inlineStr"/>
       <c r="G2922" t="inlineStr"/>
       <c r="H2922" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2923">
-      <c r="A2923" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2923" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2923" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookJAN</t>
-        </is>
-      </c>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr"/>
-      <c r="H2923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2924">
-      <c r="A2924" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>3-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>2.625%</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr"/>
-      <c r="H2924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2925">
-      <c r="A2925" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2925" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2925" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="H2925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2926">
-      <c r="A2926" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2926" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2926" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>8.6%</t>
-        </is>
-      </c>
-      <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>8.50%</t>
-        </is>
-      </c>
-      <c r="H2926" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2927">
-      <c r="A2927" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2927" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2927" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2928">
-      <c r="A2928" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2928" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2928" t="inlineStr">
-        <is>
-          <t>Participation RateDEC</t>
-        </is>
-      </c>
-      <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>54.2%</t>
-        </is>
-      </c>
-      <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>54.6%</t>
-        </is>
-      </c>
-      <c r="H2928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2929" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2929" t="inlineStr">
-        <is>
-          <t>Auto Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2929" t="inlineStr"/>
-      <c r="E2929" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
-      <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="H2929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2930" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2930" t="inlineStr">
-        <is>
-          <t>Auto Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H2930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2931" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2931" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr"/>
-      <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr"/>
-      <c r="H2931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2932">
-      <c r="A2932" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2932" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2932" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2932" t="inlineStr"/>
-      <c r="E2932" t="inlineStr"/>
-      <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr"/>
-      <c r="H2932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2933">
-      <c r="A2933" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2933" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2933" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2933" t="inlineStr"/>
-      <c r="E2933" t="inlineStr"/>
-      <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr"/>
-      <c r="H2933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2934">
-      <c r="A2934" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2934" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2934" t="inlineStr">
-        <is>
-          <t>BoC Market Participants Survey</t>
-        </is>
-      </c>
-      <c r="D2934" t="inlineStr"/>
-      <c r="E2934" t="inlineStr"/>
-      <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr"/>
-      <c r="H2934" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2935">
-      <c r="A2935" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2935" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2935" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
-        </is>
-      </c>
-      <c r="D2935" t="inlineStr"/>
-      <c r="E2935" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr"/>
-      <c r="H2935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2936">
-      <c r="A2936" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2936" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2936" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2936" t="inlineStr"/>
-      <c r="E2936" t="inlineStr"/>
-      <c r="F2936" t="inlineStr"/>
-      <c r="G2936" t="inlineStr"/>
-      <c r="H2936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2937">
-      <c r="A2937" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2937" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2937" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr"/>
-      <c r="F2937" t="inlineStr"/>
-      <c r="G2937" t="inlineStr"/>
-      <c r="H2937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2938">
-      <c r="A2938" t="inlineStr"/>
-      <c r="B2938" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2938" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2938" t="inlineStr"/>
-      <c r="E2938" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F2938" t="inlineStr"/>
-      <c r="G2938" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H2938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2939">
-      <c r="A2939" t="inlineStr"/>
-      <c r="B2939" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2939" t="inlineStr">
-        <is>
-          <t>New Yuan LoansJAN</t>
-        </is>
-      </c>
-      <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr"/>
-      <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr"/>
-      <c r="H2939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2940">
-      <c r="A2940" t="inlineStr"/>
-      <c r="B2940" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2940" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr"/>
-      <c r="H2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2941">
-      <c r="A2941" t="inlineStr"/>
-      <c r="B2941" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2941" t="inlineStr">
-        <is>
-          <t>Outstanding Loan Growth YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr"/>
-      <c r="H2941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2942">
-      <c r="A2942" t="inlineStr"/>
-      <c r="B2942" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2942" t="inlineStr">
-        <is>
-          <t>Total Social FinancingJAN</t>
-        </is>
-      </c>
-      <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr"/>
-      <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr"/>
-      <c r="H2942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2943">
-      <c r="A2943" t="inlineStr"/>
-      <c r="B2943" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2943" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr">
-        <is>
-          <t>10.5%</t>
-        </is>
-      </c>
-      <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr"/>
-      <c r="H2943" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
